--- a/data/BPPS hh instrument pre-codebook.xlsx
+++ b/data/BPPS hh instrument pre-codebook.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Private\dkillian\AMELA\BPPS\BPPS analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff.yang\Documents\BPPS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D67CFF4-F9F1-496B-BDEE-2EA41ED3227A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="917" activeTab="8" xr2:uid="{7C5782EE-2608-45B0-A71E-89A514E2A049}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="varnames" sheetId="1" r:id="rId1"/>
@@ -24,37 +23,38 @@
     <sheet name="yes_no" sheetId="9" r:id="rId9"/>
     <sheet name="postive_negative" sheetId="10" r:id="rId10"/>
     <sheet name="improve" sheetId="12" r:id="rId11"/>
-    <sheet name="better" sheetId="31" r:id="rId12"/>
-    <sheet name="more" sheetId="36" r:id="rId13"/>
-    <sheet name="social_media" sheetId="16" r:id="rId14"/>
-    <sheet name="often" sheetId="15" r:id="rId15"/>
-    <sheet name="often2" sheetId="29" r:id="rId16"/>
-    <sheet name="rate" sheetId="14" r:id="rId17"/>
-    <sheet name="optimism" sheetId="23" r:id="rId18"/>
-    <sheet name="influential" sheetId="24" r:id="rId19"/>
-    <sheet name="increase" sheetId="25" r:id="rId20"/>
-    <sheet name="logo" sheetId="13" r:id="rId21"/>
-    <sheet name="satis4" sheetId="17" r:id="rId22"/>
-    <sheet name="satis5" sheetId="26" r:id="rId23"/>
-    <sheet name="projects_dislike" sheetId="18" r:id="rId24"/>
-    <sheet name="participated_type" sheetId="19" r:id="rId25"/>
-    <sheet name="direction" sheetId="20" r:id="rId26"/>
-    <sheet name="corruption" sheetId="21" r:id="rId27"/>
-    <sheet name="paid_who" sheetId="22" r:id="rId28"/>
-    <sheet name="security_source" sheetId="28" r:id="rId29"/>
-    <sheet name="symptoms" sheetId="27" r:id="rId30"/>
-    <sheet name="likely" sheetId="32" r:id="rId31"/>
-    <sheet name="helpful" sheetId="30" r:id="rId32"/>
-    <sheet name="count" sheetId="33" r:id="rId33"/>
-    <sheet name="occupation" sheetId="35" r:id="rId34"/>
-    <sheet name="violence_who" sheetId="34" r:id="rId35"/>
-    <sheet name="sex" sheetId="2" r:id="rId36"/>
-    <sheet name="female" sheetId="3" r:id="rId37"/>
-    <sheet name="marital_status" sheetId="39" r:id="rId38"/>
-    <sheet name="comprehension" sheetId="37" r:id="rId39"/>
-    <sheet name="comfort" sheetId="38" r:id="rId40"/>
-    <sheet name="backcheck" sheetId="40" r:id="rId41"/>
-    <sheet name="ethnic_group" sheetId="41" r:id="rId42"/>
+    <sheet name="days" sheetId="43" r:id="rId12"/>
+    <sheet name="better" sheetId="31" r:id="rId13"/>
+    <sheet name="more" sheetId="36" r:id="rId14"/>
+    <sheet name="social_media" sheetId="16" r:id="rId15"/>
+    <sheet name="often" sheetId="15" r:id="rId16"/>
+    <sheet name="often2" sheetId="29" r:id="rId17"/>
+    <sheet name="rate" sheetId="14" r:id="rId18"/>
+    <sheet name="optimism" sheetId="23" r:id="rId19"/>
+    <sheet name="influential" sheetId="24" r:id="rId20"/>
+    <sheet name="increase" sheetId="25" r:id="rId21"/>
+    <sheet name="logo" sheetId="13" r:id="rId22"/>
+    <sheet name="satis4" sheetId="17" r:id="rId23"/>
+    <sheet name="satis5" sheetId="26" r:id="rId24"/>
+    <sheet name="projects_dislike" sheetId="18" r:id="rId25"/>
+    <sheet name="participated_type" sheetId="19" r:id="rId26"/>
+    <sheet name="direction" sheetId="20" r:id="rId27"/>
+    <sheet name="corruption" sheetId="21" r:id="rId28"/>
+    <sheet name="paid_who" sheetId="22" r:id="rId29"/>
+    <sheet name="security_source" sheetId="28" r:id="rId30"/>
+    <sheet name="symptoms" sheetId="27" r:id="rId31"/>
+    <sheet name="likely" sheetId="32" r:id="rId32"/>
+    <sheet name="helpful" sheetId="30" r:id="rId33"/>
+    <sheet name="count" sheetId="33" r:id="rId34"/>
+    <sheet name="occupation" sheetId="35" r:id="rId35"/>
+    <sheet name="violence_who" sheetId="34" r:id="rId36"/>
+    <sheet name="sex" sheetId="2" r:id="rId37"/>
+    <sheet name="female" sheetId="3" r:id="rId38"/>
+    <sheet name="marital_status" sheetId="39" r:id="rId39"/>
+    <sheet name="comprehension" sheetId="37" r:id="rId40"/>
+    <sheet name="comfort" sheetId="38" r:id="rId41"/>
+    <sheet name="backcheck" sheetId="40" r:id="rId42"/>
+    <sheet name="ethnic_group" sheetId="41" r:id="rId43"/>
   </sheets>
   <definedNames>
     <definedName name="_26in1rg">varnames!$F$314</definedName>
@@ -62,7 +62,7 @@
     <definedName name="_Hlk53135166">varnames!$F$49</definedName>
     <definedName name="_tyjcwt">participated_type!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1270">
   <si>
     <t>serial</t>
   </si>
@@ -3874,11 +3874,41 @@
   <si>
     <t>Response</t>
   </si>
+  <si>
+    <t>days_code</t>
+  </si>
+  <si>
+    <t>days_lab</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>6 days</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4407,7 +4437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1EA6D-FF5A-4C57-81D1-4BD24F521050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4415,19 +4445,19 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.77734375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.81640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -4471,7 +4501,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -4492,7 +4522,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -4511,7 +4541,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -4530,7 +4560,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -4551,7 +4581,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -4574,7 +4604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4597,7 +4627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -4620,7 +4650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -4643,7 +4673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -4666,7 +4696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -4687,7 +4717,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4708,7 +4738,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -4729,7 +4759,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -4750,7 +4780,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -4771,7 +4801,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -4792,7 +4822,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -4813,7 +4843,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -4834,7 +4864,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -4855,7 +4885,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -4876,7 +4906,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -4897,7 +4927,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -4918,7 +4948,7 @@
       </c>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -4939,7 +4969,7 @@
       </c>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -4960,7 +4990,7 @@
       </c>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -4981,7 +5011,7 @@
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5002,7 +5032,7 @@
       </c>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -5025,7 +5055,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -5046,7 +5076,7 @@
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -5067,7 +5097,7 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -5088,7 +5118,7 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -5111,7 +5141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -5134,7 +5164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="21">
         <v>33</v>
       </c>
@@ -5157,7 +5187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="21">
         <v>34</v>
       </c>
@@ -5180,7 +5210,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="21">
         <v>35</v>
       </c>
@@ -5203,7 +5233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -5225,7 +5255,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -5246,7 +5276,7 @@
       </c>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="21">
         <v>38</v>
       </c>
@@ -5269,7 +5299,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -5292,7 +5322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -5315,7 +5345,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="21">
         <v>41</v>
       </c>
@@ -5338,7 +5368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="21">
         <v>42</v>
       </c>
@@ -5361,7 +5391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -5384,7 +5414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -5407,7 +5437,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -5430,7 +5460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -5453,7 +5483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -5476,7 +5506,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -5499,7 +5529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -5522,7 +5552,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -5545,7 +5575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -5568,7 +5598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -5591,7 +5621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -5614,7 +5644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="21">
         <v>54</v>
       </c>
@@ -5637,7 +5667,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -5660,7 +5690,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="21">
         <v>56</v>
       </c>
@@ -5683,7 +5713,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="21">
         <v>57</v>
       </c>
@@ -5706,7 +5736,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -5729,7 +5759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -5752,7 +5782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -5775,7 +5805,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -5798,7 +5828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="21">
         <v>62</v>
       </c>
@@ -5819,7 +5849,7 @@
       </c>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="21">
         <v>63</v>
       </c>
@@ -5840,7 +5870,7 @@
       </c>
       <c r="G64" s="22"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="21">
         <v>64</v>
       </c>
@@ -5861,7 +5891,7 @@
       </c>
       <c r="G65" s="22"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="21">
         <v>65</v>
       </c>
@@ -5882,7 +5912,7 @@
       </c>
       <c r="G66" s="22"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="21">
         <v>66</v>
       </c>
@@ -5903,7 +5933,7 @@
       </c>
       <c r="G67" s="22"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="21">
         <v>67</v>
       </c>
@@ -5924,7 +5954,7 @@
       </c>
       <c r="G68" s="22"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="21">
         <v>68</v>
       </c>
@@ -5947,7 +5977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="21">
         <v>69</v>
       </c>
@@ -5968,7 +5998,7 @@
       </c>
       <c r="G70" s="22"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="21">
         <v>70</v>
       </c>
@@ -5989,7 +6019,7 @@
       </c>
       <c r="G71" s="22"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="21">
         <v>71</v>
       </c>
@@ -6010,7 +6040,7 @@
       </c>
       <c r="G72" s="22"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="21">
         <v>72</v>
       </c>
@@ -6031,7 +6061,7 @@
       </c>
       <c r="G73" s="22"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="21">
         <v>73</v>
       </c>
@@ -6052,7 +6082,7 @@
       </c>
       <c r="G74" s="22"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="21">
         <v>74</v>
       </c>
@@ -6073,7 +6103,7 @@
       </c>
       <c r="G75" s="22"/>
     </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="21">
         <v>75</v>
       </c>
@@ -6096,7 +6126,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="21">
         <v>76</v>
       </c>
@@ -6119,7 +6149,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -6140,7 +6170,7 @@
       </c>
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -6161,7 +6191,7 @@
       </c>
       <c r="G79" s="26"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -6182,7 +6212,7 @@
       </c>
       <c r="G80" s="26"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -6203,7 +6233,7 @@
       </c>
       <c r="G81" s="26"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -6224,7 +6254,7 @@
       </c>
       <c r="G82" s="26"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -6245,7 +6275,7 @@
       </c>
       <c r="G83" s="26"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -6266,7 +6296,7 @@
       </c>
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -6287,7 +6317,7 @@
       </c>
       <c r="G85" s="26"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -6308,7 +6338,7 @@
       </c>
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="21">
         <v>86</v>
       </c>
@@ -6329,7 +6359,7 @@
       </c>
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="21">
         <v>87</v>
       </c>
@@ -6350,7 +6380,7 @@
       </c>
       <c r="G88" s="26"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="21">
         <v>88</v>
       </c>
@@ -6371,7 +6401,7 @@
       </c>
       <c r="G89" s="26"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="21">
         <v>89</v>
       </c>
@@ -6392,7 +6422,7 @@
       </c>
       <c r="G90" s="26"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="21">
         <v>90</v>
       </c>
@@ -6413,7 +6443,7 @@
       </c>
       <c r="G91" s="26"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="21">
         <v>91</v>
       </c>
@@ -6434,7 +6464,7 @@
       </c>
       <c r="G92" s="26"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="21">
         <v>92</v>
       </c>
@@ -6455,7 +6485,7 @@
       </c>
       <c r="G93" s="26"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="21">
         <v>93</v>
       </c>
@@ -6476,7 +6506,7 @@
       </c>
       <c r="G94" s="26"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -6497,7 +6527,7 @@
       </c>
       <c r="G95" s="26"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -6518,7 +6548,7 @@
       </c>
       <c r="G96" s="26"/>
     </row>
-    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -6541,7 +6571,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="21">
         <v>97</v>
       </c>
@@ -6564,7 +6594,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -6587,7 +6617,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="21">
         <v>99</v>
       </c>
@@ -6610,7 +6640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -6633,7 +6663,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -6656,7 +6686,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -6679,7 +6709,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="21">
         <v>103</v>
       </c>
@@ -6702,7 +6732,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="21">
         <v>104</v>
       </c>
@@ -6725,7 +6755,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="21">
         <v>105</v>
       </c>
@@ -6748,7 +6778,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="21">
         <v>106</v>
       </c>
@@ -6771,7 +6801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="21">
         <v>107</v>
       </c>
@@ -6794,7 +6824,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="21">
         <v>108</v>
       </c>
@@ -6817,7 +6847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="21">
         <v>109</v>
       </c>
@@ -6840,7 +6870,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="21">
         <v>110</v>
       </c>
@@ -6863,7 +6893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="21">
         <v>111</v>
       </c>
@@ -6886,7 +6916,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="21">
         <v>112</v>
       </c>
@@ -6909,7 +6939,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="21">
         <v>113</v>
       </c>
@@ -6932,7 +6962,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="21">
         <v>114</v>
       </c>
@@ -6955,7 +6985,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="21">
         <v>115</v>
       </c>
@@ -6978,7 +7008,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="21">
         <v>116</v>
       </c>
@@ -7001,7 +7031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="21">
         <v>117</v>
       </c>
@@ -7022,7 +7052,7 @@
       </c>
       <c r="G118" s="22"/>
     </row>
-    <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="21">
         <v>118</v>
       </c>
@@ -7045,7 +7075,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="21">
         <v>119</v>
       </c>
@@ -7066,7 +7096,7 @@
       </c>
       <c r="G120" s="22"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="21">
         <v>120</v>
       </c>
@@ -7087,7 +7117,7 @@
       </c>
       <c r="G121" s="22"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="21">
         <v>121</v>
       </c>
@@ -7110,7 +7140,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="21">
         <v>122</v>
       </c>
@@ -7133,7 +7163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="21">
         <v>123</v>
       </c>
@@ -7156,7 +7186,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="21">
         <v>124</v>
       </c>
@@ -7179,7 +7209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="21">
         <v>125</v>
       </c>
@@ -7202,7 +7232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="21">
         <v>126</v>
       </c>
@@ -7225,7 +7255,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="21">
         <v>127</v>
       </c>
@@ -7248,7 +7278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="21">
         <v>128</v>
       </c>
@@ -7271,7 +7301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="21">
         <v>129</v>
       </c>
@@ -7294,7 +7324,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="21">
         <v>130</v>
       </c>
@@ -7317,7 +7347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="21">
         <v>131</v>
       </c>
@@ -7340,7 +7370,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="21">
         <v>132</v>
       </c>
@@ -7363,7 +7393,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="21">
         <v>133</v>
       </c>
@@ -7386,7 +7416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="21">
         <v>134</v>
       </c>
@@ -7409,7 +7439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="21">
         <v>135</v>
       </c>
@@ -7432,7 +7462,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="21">
         <v>136</v>
       </c>
@@ -7455,7 +7485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="21">
         <v>137</v>
       </c>
@@ -7478,7 +7508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="21">
         <v>138</v>
       </c>
@@ -7501,7 +7531,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="21">
         <v>139</v>
       </c>
@@ -7524,7 +7554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="21">
         <v>140</v>
       </c>
@@ -7547,7 +7577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="21">
         <v>141</v>
       </c>
@@ -7570,7 +7600,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="21">
         <v>142</v>
       </c>
@@ -7593,7 +7623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="21">
         <v>143</v>
       </c>
@@ -7616,7 +7646,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="21">
         <v>144</v>
       </c>
@@ -7639,7 +7669,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="21">
         <v>145</v>
       </c>
@@ -7662,7 +7692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="21">
         <v>146</v>
       </c>
@@ -7685,7 +7715,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="21">
         <v>147</v>
       </c>
@@ -7708,7 +7738,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="21">
         <v>148</v>
       </c>
@@ -7731,7 +7761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="21">
         <v>149</v>
       </c>
@@ -7754,7 +7784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="21">
         <v>150</v>
       </c>
@@ -7777,7 +7807,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="21">
         <v>151</v>
       </c>
@@ -7800,7 +7830,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="21">
         <v>152</v>
       </c>
@@ -7823,7 +7853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="21">
         <v>153</v>
       </c>
@@ -7846,7 +7876,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="21">
         <v>154</v>
       </c>
@@ -7865,7 +7895,7 @@
       </c>
       <c r="G155" s="25"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="21">
         <v>155</v>
       </c>
@@ -7884,7 +7914,7 @@
       </c>
       <c r="G156" s="25"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="21">
         <v>156</v>
       </c>
@@ -7903,7 +7933,7 @@
       </c>
       <c r="G157" s="25"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="21">
         <v>157</v>
       </c>
@@ -7922,7 +7952,7 @@
       </c>
       <c r="G158" s="25"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="21">
         <v>158</v>
       </c>
@@ -7941,7 +7971,7 @@
       </c>
       <c r="G159" s="25"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="21">
         <v>159</v>
       </c>
@@ -7960,7 +7990,7 @@
       </c>
       <c r="G160" s="25"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="21">
         <v>160</v>
       </c>
@@ -7983,7 +8013,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="21">
         <v>161</v>
       </c>
@@ -8006,7 +8036,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="21">
         <v>162</v>
       </c>
@@ -8029,7 +8059,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="21">
         <v>163</v>
       </c>
@@ -8052,7 +8082,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="21">
         <v>164</v>
       </c>
@@ -8075,7 +8105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="21">
         <v>165</v>
       </c>
@@ -8098,7 +8128,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="21">
         <v>166</v>
       </c>
@@ -8121,7 +8151,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="21">
         <v>167</v>
       </c>
@@ -8144,7 +8174,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="21">
         <v>168</v>
       </c>
@@ -8167,7 +8197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="21">
         <v>169</v>
       </c>
@@ -8190,7 +8220,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="21">
         <v>170</v>
       </c>
@@ -8213,7 +8243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="21">
         <v>171</v>
       </c>
@@ -8236,7 +8266,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="21">
         <v>172</v>
       </c>
@@ -8259,7 +8289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="21">
         <v>173</v>
       </c>
@@ -8282,7 +8312,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="21">
         <v>174</v>
       </c>
@@ -8305,7 +8335,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="21">
         <v>175</v>
       </c>
@@ -8328,7 +8358,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="21">
         <v>176</v>
       </c>
@@ -8351,7 +8381,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="21">
         <v>177</v>
       </c>
@@ -8374,7 +8404,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="21">
         <v>178</v>
       </c>
@@ -8397,7 +8427,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="21">
         <v>179</v>
       </c>
@@ -8420,7 +8450,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="21">
         <v>180</v>
       </c>
@@ -8443,7 +8473,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="21">
         <v>181</v>
       </c>
@@ -8464,7 +8494,7 @@
       </c>
       <c r="G182" s="22"/>
     </row>
-    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="21">
         <v>182</v>
       </c>
@@ -8485,7 +8515,7 @@
       </c>
       <c r="G183" s="22"/>
     </row>
-    <row r="184" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="21">
         <v>183</v>
       </c>
@@ -8506,7 +8536,7 @@
       </c>
       <c r="G184" s="22"/>
     </row>
-    <row r="185" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="21">
         <v>184</v>
       </c>
@@ -8527,7 +8557,7 @@
       </c>
       <c r="G185" s="22"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="21">
         <v>185</v>
       </c>
@@ -8548,7 +8578,7 @@
       </c>
       <c r="G186" s="26"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="21">
         <v>186</v>
       </c>
@@ -8569,7 +8599,7 @@
       </c>
       <c r="G187" s="26"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="21">
         <v>187</v>
       </c>
@@ -8590,7 +8620,7 @@
       </c>
       <c r="G188" s="26"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="21">
         <v>188</v>
       </c>
@@ -8611,7 +8641,7 @@
       </c>
       <c r="G189" s="26"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="21">
         <v>189</v>
       </c>
@@ -8632,7 +8662,7 @@
       </c>
       <c r="G190" s="26"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="21">
         <v>190</v>
       </c>
@@ -8653,7 +8683,7 @@
       </c>
       <c r="G191" s="26"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="21">
         <v>191</v>
       </c>
@@ -8674,7 +8704,7 @@
       </c>
       <c r="G192" s="26"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="21">
         <v>192</v>
       </c>
@@ -8695,7 +8725,7 @@
       </c>
       <c r="G193" s="26"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="21">
         <v>193</v>
       </c>
@@ -8716,7 +8746,7 @@
       </c>
       <c r="G194" s="26"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="21">
         <v>194</v>
       </c>
@@ -8737,7 +8767,7 @@
       </c>
       <c r="G195" s="26"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="21">
         <v>195</v>
       </c>
@@ -8758,7 +8788,7 @@
       </c>
       <c r="G196" s="26"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="21">
         <v>196</v>
       </c>
@@ -8779,7 +8809,7 @@
       </c>
       <c r="G197" s="26"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="21">
         <v>197</v>
       </c>
@@ -8800,7 +8830,7 @@
       </c>
       <c r="G198" s="26"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="21">
         <v>198</v>
       </c>
@@ -8821,7 +8851,7 @@
       </c>
       <c r="G199" s="26"/>
     </row>
-    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="21">
         <v>199</v>
       </c>
@@ -8844,7 +8874,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="21">
         <v>200</v>
       </c>
@@ -8865,7 +8895,7 @@
       </c>
       <c r="G201" s="26"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="21">
         <v>201</v>
       </c>
@@ -8886,7 +8916,7 @@
       </c>
       <c r="G202" s="26"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="21">
         <v>202</v>
       </c>
@@ -8907,7 +8937,7 @@
       </c>
       <c r="G203" s="26"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="21">
         <v>203</v>
       </c>
@@ -8928,7 +8958,7 @@
       </c>
       <c r="G204" s="26"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="21">
         <v>204</v>
       </c>
@@ -8949,7 +8979,7 @@
       </c>
       <c r="G205" s="26"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="21">
         <v>205</v>
       </c>
@@ -8970,7 +9000,7 @@
       </c>
       <c r="G206" s="26"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="21">
         <v>206</v>
       </c>
@@ -8991,7 +9021,7 @@
       </c>
       <c r="G207" s="26"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="21">
         <v>207</v>
       </c>
@@ -9012,7 +9042,7 @@
       </c>
       <c r="G208" s="26"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="21">
         <v>208</v>
       </c>
@@ -9033,7 +9063,7 @@
       </c>
       <c r="G209" s="26"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="21">
         <v>209</v>
       </c>
@@ -9054,7 +9084,7 @@
       </c>
       <c r="G210" s="26"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="21">
         <v>210</v>
       </c>
@@ -9075,7 +9105,7 @@
       </c>
       <c r="G211" s="26"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="21">
         <v>211</v>
       </c>
@@ -9096,7 +9126,7 @@
       </c>
       <c r="G212" s="26"/>
     </row>
-    <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="21">
         <v>212</v>
       </c>
@@ -9117,7 +9147,7 @@
       </c>
       <c r="G213" s="22"/>
     </row>
-    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="21">
         <v>213</v>
       </c>
@@ -9140,7 +9170,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="21">
         <v>214</v>
       </c>
@@ -9161,7 +9191,7 @@
       </c>
       <c r="G215" s="22"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="21">
         <v>215</v>
       </c>
@@ -9182,7 +9212,7 @@
       </c>
       <c r="G216" s="22"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="21">
         <v>216</v>
       </c>
@@ -9203,7 +9233,7 @@
       </c>
       <c r="G217" s="22"/>
     </row>
-    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="21">
         <v>217</v>
       </c>
@@ -9226,7 +9256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A219" s="21">
         <v>218</v>
       </c>
@@ -9249,7 +9279,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A220" s="21">
         <v>219</v>
       </c>
@@ -9272,7 +9302,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="21">
         <v>220</v>
       </c>
@@ -9295,7 +9325,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A222" s="21">
         <v>221</v>
       </c>
@@ -9318,7 +9348,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A223" s="21">
         <v>222</v>
       </c>
@@ -9341,7 +9371,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="21">
         <v>223</v>
       </c>
@@ -9364,7 +9394,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="21">
         <v>224</v>
       </c>
@@ -9387,7 +9417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="21">
         <v>225</v>
       </c>
@@ -9408,7 +9438,7 @@
       </c>
       <c r="G226" s="26"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="21">
         <v>226</v>
       </c>
@@ -9429,7 +9459,7 @@
       </c>
       <c r="G227" s="26"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="21">
         <v>227</v>
       </c>
@@ -9450,7 +9480,7 @@
       </c>
       <c r="G228" s="26"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="21">
         <v>228</v>
       </c>
@@ -9471,7 +9501,7 @@
       </c>
       <c r="G229" s="26"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="21">
         <v>229</v>
       </c>
@@ -9492,7 +9522,7 @@
       </c>
       <c r="G230" s="26"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="21">
         <v>230</v>
       </c>
@@ -9513,7 +9543,7 @@
       </c>
       <c r="G231" s="26"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="21">
         <v>231</v>
       </c>
@@ -9530,7 +9560,7 @@
       </c>
       <c r="G232" s="26"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="21">
         <v>232</v>
       </c>
@@ -9547,7 +9577,7 @@
       </c>
       <c r="G233" s="26"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="21">
         <v>233</v>
       </c>
@@ -9564,7 +9594,7 @@
       </c>
       <c r="G234" s="26"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="21">
         <v>234</v>
       </c>
@@ -9581,7 +9611,7 @@
       </c>
       <c r="G235" s="26"/>
     </row>
-    <row r="236" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A236" s="21">
         <v>235</v>
       </c>
@@ -9604,7 +9634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="21">
         <v>236</v>
       </c>
@@ -9627,7 +9657,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A238" s="21">
         <v>237</v>
       </c>
@@ -9650,7 +9680,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="21">
         <v>238</v>
       </c>
@@ -9673,7 +9703,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A240" s="21">
         <v>239</v>
       </c>
@@ -9696,7 +9726,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="21">
         <v>240</v>
       </c>
@@ -9717,7 +9747,7 @@
       </c>
       <c r="G241" s="26"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="21">
         <v>241</v>
       </c>
@@ -9738,7 +9768,7 @@
       </c>
       <c r="G242" s="26"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="21">
         <v>242</v>
       </c>
@@ -9759,7 +9789,7 @@
       </c>
       <c r="G243" s="26"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="21">
         <v>243</v>
       </c>
@@ -9780,7 +9810,7 @@
       </c>
       <c r="G244" s="26"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="21">
         <v>244</v>
       </c>
@@ -9801,7 +9831,7 @@
       </c>
       <c r="G245" s="26"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="21">
         <v>245</v>
       </c>
@@ -9822,7 +9852,7 @@
       </c>
       <c r="G246" s="26"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="21">
         <v>246</v>
       </c>
@@ -9843,7 +9873,7 @@
       </c>
       <c r="G247" s="26"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="21">
         <v>247</v>
       </c>
@@ -9864,7 +9894,7 @@
       </c>
       <c r="G248" s="26"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="21">
         <v>248</v>
       </c>
@@ -9885,7 +9915,7 @@
       </c>
       <c r="G249" s="26"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="21">
         <v>249</v>
       </c>
@@ -9906,7 +9936,7 @@
       </c>
       <c r="G250" s="26"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="21">
         <v>250</v>
       </c>
@@ -9927,7 +9957,7 @@
       </c>
       <c r="G251" s="26"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="21">
         <v>251</v>
       </c>
@@ -9945,7 +9975,7 @@
       </c>
       <c r="G252" s="26"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="21">
         <v>252</v>
       </c>
@@ -9966,7 +9996,7 @@
       </c>
       <c r="G253" s="26"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="21">
         <v>253</v>
       </c>
@@ -9987,7 +10017,7 @@
       </c>
       <c r="G254" s="26"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="21">
         <v>254</v>
       </c>
@@ -10008,7 +10038,7 @@
       </c>
       <c r="G255" s="26"/>
     </row>
-    <row r="256" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="21">
         <v>255</v>
       </c>
@@ -10031,7 +10061,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="21">
         <v>256</v>
       </c>
@@ -10052,7 +10082,7 @@
       </c>
       <c r="G257" s="26"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="21">
         <v>257</v>
       </c>
@@ -10073,7 +10103,7 @@
       </c>
       <c r="G258" s="26"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="21">
         <v>258</v>
       </c>
@@ -10094,7 +10124,7 @@
       </c>
       <c r="G259" s="26"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="21">
         <v>259</v>
       </c>
@@ -10115,7 +10145,7 @@
       </c>
       <c r="G260" s="26"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="21">
         <v>260</v>
       </c>
@@ -10136,7 +10166,7 @@
       </c>
       <c r="G261" s="26"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="21">
         <v>261</v>
       </c>
@@ -10157,7 +10187,7 @@
       </c>
       <c r="G262" s="26"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="21">
         <v>262</v>
       </c>
@@ -10178,7 +10208,7 @@
       </c>
       <c r="G263" s="26"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="21">
         <v>263</v>
       </c>
@@ -10199,7 +10229,7 @@
       </c>
       <c r="G264" s="26"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="21">
         <v>264</v>
       </c>
@@ -10220,7 +10250,7 @@
       </c>
       <c r="G265" s="26"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="21">
         <v>265</v>
       </c>
@@ -10241,7 +10271,7 @@
       </c>
       <c r="G266" s="26"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="21">
         <v>266</v>
       </c>
@@ -10262,7 +10292,7 @@
       </c>
       <c r="G267" s="26"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="21">
         <v>267</v>
       </c>
@@ -10280,7 +10310,7 @@
       </c>
       <c r="G268" s="26"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="21">
         <v>268</v>
       </c>
@@ -10301,7 +10331,7 @@
       </c>
       <c r="G269" s="26"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="21">
         <v>269</v>
       </c>
@@ -10322,7 +10352,7 @@
       </c>
       <c r="G270" s="26"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="21">
         <v>270</v>
       </c>
@@ -10341,7 +10371,7 @@
       </c>
       <c r="G271" s="26"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="21">
         <v>271</v>
       </c>
@@ -10362,7 +10392,7 @@
       </c>
       <c r="G272" s="26"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="21">
         <v>272</v>
       </c>
@@ -10383,7 +10413,7 @@
       </c>
       <c r="G273" s="26"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="21">
         <v>273</v>
       </c>
@@ -10404,7 +10434,7 @@
       </c>
       <c r="G274" s="26"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="21">
         <v>274</v>
       </c>
@@ -10425,7 +10455,7 @@
       </c>
       <c r="G275" s="26"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="21">
         <v>275</v>
       </c>
@@ -10446,7 +10476,7 @@
       </c>
       <c r="G276" s="26"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="21">
         <v>276</v>
       </c>
@@ -10467,7 +10497,7 @@
       </c>
       <c r="G277" s="26"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="21">
         <v>277</v>
       </c>
@@ -10488,7 +10518,7 @@
       </c>
       <c r="G278" s="26"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="21">
         <v>278</v>
       </c>
@@ -10509,7 +10539,7 @@
       </c>
       <c r="G279" s="26"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="21">
         <v>279</v>
       </c>
@@ -10530,7 +10560,7 @@
       </c>
       <c r="G280" s="26"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="21">
         <v>280</v>
       </c>
@@ -10551,7 +10581,7 @@
       </c>
       <c r="G281" s="26"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="21">
         <v>281</v>
       </c>
@@ -10572,7 +10602,7 @@
       </c>
       <c r="G282" s="26"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="21">
         <v>282</v>
       </c>
@@ -10593,7 +10623,7 @@
       </c>
       <c r="G283" s="26"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="21">
         <v>283</v>
       </c>
@@ -10614,7 +10644,7 @@
       </c>
       <c r="G284" s="26"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="21">
         <v>284</v>
       </c>
@@ -10634,7 +10664,7 @@
       <c r="G285" s="26"/>
       <c r="H285" s="15"/>
     </row>
-    <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A286" s="21">
         <v>285</v>
       </c>
@@ -10657,7 +10687,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A287" s="21">
         <v>286</v>
       </c>
@@ -10680,7 +10710,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="21">
         <v>287</v>
       </c>
@@ -10703,7 +10733,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="21">
         <v>288</v>
       </c>
@@ -10726,7 +10756,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="21">
         <v>289</v>
       </c>
@@ -10749,7 +10779,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="21">
         <v>290</v>
       </c>
@@ -10772,7 +10802,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="21">
         <v>291</v>
       </c>
@@ -10795,7 +10825,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A293" s="21">
         <v>292</v>
       </c>
@@ -10816,7 +10846,7 @@
       </c>
       <c r="G293" s="22"/>
     </row>
-    <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="21">
         <v>293</v>
       </c>
@@ -10839,7 +10869,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="21">
         <v>294</v>
       </c>
@@ -10860,7 +10890,7 @@
       </c>
       <c r="G295" s="22"/>
     </row>
-    <row r="296" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A296" s="21">
         <v>295</v>
       </c>
@@ -10883,7 +10913,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="21">
         <v>296</v>
       </c>
@@ -10904,7 +10934,7 @@
       </c>
       <c r="G297" s="22"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="21">
         <v>297</v>
       </c>
@@ -10925,7 +10955,7 @@
       </c>
       <c r="G298" s="22"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="21">
         <v>298</v>
       </c>
@@ -10946,7 +10976,7 @@
       </c>
       <c r="G299" s="22"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="21">
         <v>299</v>
       </c>
@@ -10967,7 +10997,7 @@
       </c>
       <c r="G300" s="22"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="21">
         <v>300</v>
       </c>
@@ -10988,7 +11018,7 @@
       </c>
       <c r="G301" s="22"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="21">
         <v>301</v>
       </c>
@@ -11009,7 +11039,7 @@
       </c>
       <c r="G302" s="22"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="21">
         <v>302</v>
       </c>
@@ -11030,7 +11060,7 @@
       </c>
       <c r="G303" s="22"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="21">
         <v>303</v>
       </c>
@@ -11051,7 +11081,7 @@
       </c>
       <c r="G304" s="22"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="21">
         <v>304</v>
       </c>
@@ -11072,7 +11102,7 @@
       </c>
       <c r="G305" s="22"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="21">
         <v>305</v>
       </c>
@@ -11093,7 +11123,7 @@
       </c>
       <c r="G306" s="22"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="21">
         <v>306</v>
       </c>
@@ -11114,7 +11144,7 @@
       </c>
       <c r="G307" s="22"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="21">
         <v>307</v>
       </c>
@@ -11135,7 +11165,7 @@
       </c>
       <c r="G308" s="22"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="21">
         <v>308</v>
       </c>
@@ -11156,7 +11186,7 @@
       </c>
       <c r="G309" s="22"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="21">
         <v>309</v>
       </c>
@@ -11177,7 +11207,7 @@
       </c>
       <c r="G310" s="22"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="21">
         <v>310</v>
       </c>
@@ -11198,7 +11228,7 @@
       </c>
       <c r="G311" s="22"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="21">
         <v>311</v>
       </c>
@@ -11219,7 +11249,7 @@
       </c>
       <c r="G312" s="22"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="21">
         <v>312</v>
       </c>
@@ -11240,7 +11270,7 @@
       </c>
       <c r="G313" s="22"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="21">
         <v>313</v>
       </c>
@@ -11261,7 +11291,7 @@
       </c>
       <c r="G314" s="22"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="21">
         <v>314</v>
       </c>
@@ -11282,7 +11312,7 @@
       </c>
       <c r="G315" s="22"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="21">
         <v>315</v>
       </c>
@@ -11303,7 +11333,7 @@
       </c>
       <c r="G316" s="22"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="21">
         <v>316</v>
       </c>
@@ -11324,7 +11354,7 @@
       </c>
       <c r="G317" s="22"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="21">
         <v>317</v>
       </c>
@@ -11345,7 +11375,7 @@
       </c>
       <c r="G318" s="22"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="21">
         <v>318</v>
       </c>
@@ -11366,7 +11396,7 @@
       </c>
       <c r="G319" s="22"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="21">
         <v>319</v>
       </c>
@@ -11387,7 +11417,7 @@
       </c>
       <c r="G320" s="22"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="21">
         <v>320</v>
       </c>
@@ -11408,7 +11438,7 @@
       </c>
       <c r="G321" s="22"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="21">
         <v>321</v>
       </c>
@@ -11429,7 +11459,7 @@
       </c>
       <c r="G322" s="22"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="21">
         <v>322</v>
       </c>
@@ -11450,7 +11480,7 @@
       </c>
       <c r="G323" s="22"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="21">
         <v>323</v>
       </c>
@@ -11471,7 +11501,7 @@
       </c>
       <c r="G324" s="22"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="21">
         <v>324</v>
       </c>
@@ -11494,7 +11524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="21">
         <v>325</v>
       </c>
@@ -11517,7 +11547,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="21">
         <v>326</v>
       </c>
@@ -11538,7 +11568,7 @@
       </c>
       <c r="G327" s="22"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="21">
         <v>327</v>
       </c>
@@ -11555,7 +11585,7 @@
       </c>
       <c r="G328" s="33"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="21">
         <v>328</v>
       </c>
@@ -11578,7 +11608,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A330" s="21">
         <v>329</v>
       </c>
@@ -11599,7 +11629,7 @@
       </c>
       <c r="G330" s="22"/>
     </row>
-    <row r="331" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A331" s="21">
         <v>330</v>
       </c>
@@ -11620,7 +11650,7 @@
       </c>
       <c r="G331" s="22"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="21">
         <v>331</v>
       </c>
@@ -11643,7 +11673,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="21">
         <v>332</v>
       </c>
@@ -11666,7 +11696,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A334" s="21">
         <v>333</v>
       </c>
@@ -11689,7 +11719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="21">
         <v>334</v>
       </c>
@@ -11710,7 +11740,7 @@
       </c>
       <c r="G335" s="22"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="21">
         <v>335</v>
       </c>
@@ -11731,7 +11761,7 @@
       </c>
       <c r="G336" s="22"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="21">
         <v>336</v>
       </c>
@@ -11752,7 +11782,7 @@
       </c>
       <c r="G337" s="22"/>
     </row>
-    <row r="338" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A338" s="21">
         <v>337</v>
       </c>
@@ -11775,7 +11805,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A339" s="21">
         <v>338</v>
       </c>
@@ -11798,7 +11828,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="21">
         <v>339</v>
       </c>
@@ -11821,7 +11851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="21">
         <v>340</v>
       </c>
@@ -11844,7 +11874,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="21">
         <v>341</v>
       </c>
@@ -11865,7 +11895,7 @@
       </c>
       <c r="G342" s="22"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="24"/>
       <c r="B343" s="24"/>
       <c r="C343" s="24"/>
@@ -11874,7 +11904,7 @@
       <c r="F343" s="28"/>
       <c r="G343" s="22"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="24"/>
       <c r="B344" s="24"/>
       <c r="C344" s="24"/>
@@ -11883,7 +11913,7 @@
       <c r="F344" s="28"/>
       <c r="G344" s="22"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="24"/>
       <c r="B345" s="24"/>
       <c r="C345" s="24"/>
@@ -11892,7 +11922,7 @@
       <c r="F345" s="28"/>
       <c r="G345" s="22"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="24"/>
       <c r="B346" s="24"/>
       <c r="C346" s="24"/>
@@ -11901,7 +11931,7 @@
       <c r="F346" s="28"/>
       <c r="G346" s="22"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="24"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
@@ -11910,7 +11940,7 @@
       <c r="F347" s="28"/>
       <c r="G347" s="22"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="24"/>
       <c r="B348" s="24"/>
       <c r="C348" s="24"/>
@@ -11919,7 +11949,7 @@
       <c r="F348" s="28"/>
       <c r="G348" s="22"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="24"/>
       <c r="B349" s="24"/>
       <c r="C349" s="24"/>
@@ -11928,7 +11958,7 @@
       <c r="F349" s="28"/>
       <c r="G349" s="22"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="24"/>
       <c r="B350" s="24"/>
       <c r="C350" s="24"/>
@@ -11937,7 +11967,7 @@
       <c r="F350" s="28"/>
       <c r="G350" s="22"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="24"/>
       <c r="B351" s="24"/>
       <c r="C351" s="24"/>
@@ -11946,7 +11976,7 @@
       <c r="F351" s="28"/>
       <c r="G351" s="22"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="24"/>
       <c r="B352" s="24"/>
       <c r="C352" s="24"/>
@@ -11955,7 +11985,7 @@
       <c r="F352" s="28"/>
       <c r="G352" s="22"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="24"/>
       <c r="B353" s="24"/>
       <c r="C353" s="24"/>
@@ -11964,37 +11994,37 @@
       <c r="F353" s="28"/>
       <c r="G353" s="22"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C354" s="24"/>
       <c r="E354" s="22"/>
       <c r="F354" s="28"/>
       <c r="G354" s="22"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C355" s="24"/>
       <c r="E355" s="22"/>
       <c r="F355" s="28"/>
       <c r="G355" s="22"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C356" s="24"/>
       <c r="E356" s="22"/>
       <c r="F356" s="28"/>
       <c r="G356" s="22"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C357" s="24"/>
       <c r="E357" s="22"/>
       <c r="F357" s="28"/>
       <c r="G357" s="22"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C358" s="24"/>
       <c r="E358" s="22"/>
       <c r="F358" s="28"/>
       <c r="G358" s="22"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C359" s="24"/>
       <c r="E359" s="22"/>
       <c r="F359" s="28"/>
@@ -12006,20 +12036,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9B3B49-E079-4AEB-B1A9-0C59E33782C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
@@ -12027,7 +12057,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12035,7 +12065,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12043,7 +12073,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12051,7 +12081,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12059,7 +12089,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12067,7 +12097,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>98</v>
       </c>
@@ -12075,7 +12105,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>99</v>
       </c>
@@ -12089,18 +12119,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF89D94-9971-4CE2-9F64-1B87C2B658C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>922</v>
       </c>
@@ -12108,7 +12140,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12116,7 +12148,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12124,7 +12156,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12132,7 +12164,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12140,7 +12172,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12148,7 +12180,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>97</v>
       </c>
@@ -12156,7 +12188,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>98</v>
       </c>
@@ -12164,7 +12196,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>99</v>
       </c>
@@ -12178,78 +12210,100 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBA4B54-A94B-4C18-82C1-4DCFBD9C36E0}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>929</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1260</v>
       </c>
       <c r="B1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>98</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>262</v>
       </c>
     </row>
@@ -12259,19 +12313,100 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E45A281-EA53-45B0-A64E-689973708F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>740</v>
       </c>
@@ -12279,7 +12414,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12287,7 +12422,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12295,7 +12430,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12303,7 +12438,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12311,7 +12446,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12319,7 +12454,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>98</v>
       </c>
@@ -12327,7 +12462,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>99</v>
       </c>
@@ -12340,21 +12475,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6607A5A-D95F-4866-8375-7D1FE2AE7340}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>941</v>
       </c>
@@ -12362,7 +12497,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12370,7 +12505,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12378,7 +12513,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12386,7 +12521,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12394,7 +12529,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12402,7 +12537,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12410,7 +12545,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12418,7 +12553,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12426,7 +12561,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12434,7 +12569,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12442,7 +12577,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12450,7 +12585,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12458,7 +12593,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12466,7 +12601,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12474,7 +12609,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>96</v>
       </c>
@@ -12482,7 +12617,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>97</v>
       </c>
@@ -12490,7 +12625,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>98</v>
       </c>
@@ -12498,7 +12633,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>99</v>
       </c>
@@ -12511,17 +12646,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C786A-B7E7-4DF1-AD42-D4250C6110AD}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -12529,7 +12664,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12537,7 +12672,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12545,7 +12680,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12553,7 +12688,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12561,7 +12696,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>98</v>
       </c>
@@ -12569,76 +12704,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776636E3-D0DA-41FC-8FC6-10305F358C4A}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>99</v>
       </c>
@@ -12652,16 +12718,85 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C117C9B-8246-4496-861E-8D406F9F1E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>949</v>
       </c>
@@ -12669,7 +12804,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12677,7 +12812,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12685,7 +12820,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12693,7 +12828,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12701,7 +12836,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12709,7 +12844,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12717,7 +12852,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>98</v>
       </c>
@@ -12725,92 +12860,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9635FA-5F72-4974-A851-53F8FE499AAE}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>99</v>
       </c>
@@ -12824,16 +12874,143 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4854D6E-E4DC-47E4-A478-29915C4FE385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="9.08984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>567</v>
       </c>
@@ -12841,7 +13018,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12849,7 +13026,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12857,7 +13034,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12865,7 +13042,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12873,7 +13050,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12881,7 +13058,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>97</v>
       </c>
@@ -12889,7 +13066,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>98</v>
       </c>
@@ -12897,7 +13074,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>99</v>
       </c>
@@ -12910,59 +13087,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361C3B28-04CA-4C0C-9655-50B4BC57D75A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D089E4A5-B85D-4012-9064-8402C570C223}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>559</v>
       </c>
@@ -12970,7 +13105,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12978,7 +13113,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12986,7 +13121,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12994,7 +13129,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13002,7 +13137,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13010,7 +13145,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>97</v>
       </c>
@@ -13018,7 +13153,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>98</v>
       </c>
@@ -13026,7 +13161,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>99</v>
       </c>
@@ -13039,21 +13174,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C88899-D97E-4555-B650-B93ABD507B11}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="46.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>387</v>
       </c>
@@ -13064,7 +13199,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13075,7 +13210,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13086,7 +13221,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13097,7 +13232,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13108,7 +13243,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13119,7 +13254,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13130,7 +13265,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13141,7 +13276,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13152,7 +13287,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13163,7 +13298,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13174,7 +13309,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13185,7 +13320,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>14</v>
       </c>
@@ -13196,7 +13331,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>98</v>
       </c>
@@ -13207,7 +13342,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>99</v>
       </c>
@@ -13223,20 +13358,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA378C2D-7F39-408A-A885-902DE80DD472}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>446</v>
       </c>
@@ -13244,7 +13379,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13252,7 +13387,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13260,7 +13395,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13268,7 +13403,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13276,7 +13411,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>98</v>
       </c>
@@ -13284,7 +13419,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>99</v>
       </c>
@@ -13297,17 +13432,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83352C21-7630-4B45-9908-AAC4B3592463}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>712</v>
       </c>
@@ -13315,7 +13450,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13323,7 +13458,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13331,7 +13466,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13339,7 +13474,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13347,7 +13482,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13355,7 +13490,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>98</v>
       </c>
@@ -13363,7 +13498,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>99</v>
       </c>
@@ -13376,21 +13511,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4CF8ED-20C3-4FA9-BDE2-2CBB9A17988A}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1006</v>
       </c>
@@ -13398,7 +13533,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13406,7 +13541,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13414,7 +13549,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13422,7 +13557,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13430,7 +13565,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13438,7 +13573,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -13446,7 +13581,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13454,7 +13589,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13462,7 +13597,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13470,7 +13605,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13478,7 +13613,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -13486,7 +13621,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>98</v>
       </c>
@@ -13494,7 +13629,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>99</v>
       </c>
@@ -13507,21 +13642,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC713EFB-9D1B-4FF3-92EF-51E1A151A565}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1008</v>
       </c>
@@ -13529,7 +13664,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13537,7 +13672,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13545,7 +13680,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13553,7 +13688,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13561,7 +13696,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13569,7 +13704,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -13577,7 +13712,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13585,7 +13720,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13593,7 +13728,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13601,7 +13736,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>98</v>
       </c>
@@ -13609,64 +13744,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FE3C6F-B72A-4D19-91C0-53D452181D0B}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
         <v>262</v>
       </c>
     </row>
@@ -13676,20 +13758,73 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B2A19B-7EAF-4664-8186-C0FD3ABC5837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>575</v>
       </c>
@@ -13697,7 +13832,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13705,7 +13840,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13713,7 +13848,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13721,7 +13856,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>98</v>
       </c>
@@ -13729,7 +13864,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>99</v>
       </c>
@@ -13742,21 +13877,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F805B6EE-BBD5-46E8-AD15-F39381FA24DF}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="3"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1017</v>
       </c>
@@ -13764,7 +13899,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13772,7 +13907,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13780,7 +13915,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13788,7 +13923,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13796,7 +13931,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13804,7 +13939,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>98</v>
       </c>
@@ -13812,116 +13947,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EB6A68-281A-49E6-9632-BF830CB70707}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>96</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
         <v>262</v>
       </c>
     </row>
@@ -13931,16 +13961,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216B9190-FACF-4C51-AEF8-0E5F698103B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>887</v>
       </c>
@@ -13948,7 +13978,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13956,7 +13986,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13970,115 +14000,103 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005E4675-BFEB-4606-9DEF-2F9F443F468C}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5" s="10" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B6" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B7" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="B8" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>96</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>98</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>99</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>710</v>
+      <c r="B11" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -14087,16 +14105,133 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3EB605-9F0C-4B5A-AE97-0CBF76B04EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>98</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>99</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>722</v>
       </c>
@@ -14104,7 +14239,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14112,7 +14247,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14120,7 +14255,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14128,7 +14263,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14136,7 +14271,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>98</v>
       </c>
@@ -14144,7 +14279,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>99</v>
       </c>
@@ -14157,17 +14292,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6289214-15AC-492E-A2A6-46253559FF9D}">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>716</v>
       </c>
@@ -14175,7 +14310,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14183,7 +14318,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14191,7 +14326,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14199,7 +14334,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14207,7 +14342,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14215,7 +14350,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>98</v>
       </c>
@@ -14223,84 +14358,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A389CDFC-30F0-45BF-BA0A-2CC03B0B1C43}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
         <v>262</v>
       </c>
     </row>
@@ -14310,16 +14372,89 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275B5F46-5039-4ADF-A40D-CE5962C07971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>734</v>
       </c>
@@ -14327,7 +14462,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14335,7 +14470,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14343,7 +14478,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14351,7 +14486,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14359,7 +14494,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14367,7 +14502,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14375,7 +14510,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14383,7 +14518,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14391,7 +14526,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14399,7 +14534,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14407,7 +14542,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14415,7 +14550,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14423,7 +14558,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14431,7 +14566,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14439,7 +14574,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14447,7 +14582,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14455,7 +14590,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14463,7 +14598,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>98</v>
       </c>
@@ -14471,157 +14606,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501DCC1A-5DA1-49B8-8815-22760B2A7FCB}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -14630,19 +14620,164 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6AABA0-B30E-49E4-9150-05D6DBFA07DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="2"/>
+    <col min="1" max="2" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>837</v>
       </c>
@@ -14650,7 +14785,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -14658,7 +14793,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -14671,20 +14806,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3992A8B3-2AD5-493F-BCED-952510190C5B}">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="3"/>
+    <col min="1" max="2" width="9.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1060</v>
       </c>
@@ -14692,7 +14827,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -14700,89 +14835,12 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1063</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4B3855-96AA-4FAF-8887-A9AE20FB2A73}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -14791,62 +14849,75 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F5EC1-3E51-4D84-B3E8-086C93C78DA0}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="86.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="B2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="B3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="B4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
+      <c r="B5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -14855,19 +14926,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0964734B-3277-4ED4-9566-CF1ACFF585F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1102</v>
       </c>
@@ -14875,7 +14946,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14883,7 +14954,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14891,7 +14962,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14899,7 +14970,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14907,7 +14978,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14915,7 +14986,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14923,7 +14994,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14931,7 +15002,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14939,7 +15010,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14947,7 +15018,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14955,7 +15026,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14963,7 +15034,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14971,7 +15042,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14979,7 +15050,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14993,19 +15064,83 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF58C8-4805-4A97-A6E3-45B7B1F73816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" style="3"/>
+    <col min="2" max="2" width="86.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>872</v>
       </c>
@@ -15013,7 +15148,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -15021,7 +15156,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -15029,7 +15164,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -15037,7 +15172,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -15050,21 +15185,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E7467D-C152-441B-8317-D47B87CC62A4}">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>878</v>
       </c>
@@ -15072,7 +15207,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -15080,7 +15215,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -15088,7 +15223,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -15096,7 +15231,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -15104,7 +15239,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -15117,20 +15252,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D7D0E0-98EC-4C15-910C-6602FB46694C}">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>853</v>
       </c>
@@ -15138,7 +15273,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -15146,7 +15281,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -15154,7 +15289,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -15162,7 +15297,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -15170,7 +15305,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -15178,7 +15313,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -15186,7 +15321,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -15194,7 +15329,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -15202,7 +15337,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -15210,7 +15345,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -15218,7 +15353,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -15226,7 +15361,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -15234,7 +15369,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -15242,7 +15377,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -15250,7 +15385,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -15258,7 +15393,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>98</v>
       </c>
@@ -15266,7 +15401,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>99</v>
       </c>
@@ -15280,20 +15415,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FF3235-9121-41CB-967E-C4CDAECC1A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -15301,7 +15436,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -15309,7 +15444,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -15317,7 +15452,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -15325,7 +15460,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -15333,7 +15468,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -15341,7 +15476,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -15349,7 +15484,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -15363,19 +15498,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1ED240-B5EE-4294-B29A-0C4CB2F73D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -15383,7 +15518,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15391,7 +15526,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6</v>
       </c>
@@ -15399,7 +15534,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
@@ -15407,7 +15542,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15</v>
       </c>
@@ -15415,7 +15550,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>18</v>
       </c>
@@ -15423,7 +15558,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -15431,7 +15566,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>28</v>
       </c>
@@ -15445,17 +15580,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710C0DEB-1322-4373-A098-8D2F5DBA8974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -15469,20 +15604,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C13C84-8934-42CB-80AE-B2B957328FC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>907</v>
       </c>
@@ -15490,7 +15625,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15498,7 +15633,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15506,7 +15641,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15514,7 +15649,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15522,7 +15657,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>98</v>
       </c>
@@ -15530,7 +15665,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>99</v>
       </c>
@@ -15544,19 +15679,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE025C3-3BDC-49C8-B57C-C28FD2B8A817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>913</v>
       </c>
@@ -15564,7 +15699,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15572,7 +15707,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15580,7 +15715,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>97</v>
       </c>
@@ -15588,7 +15723,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>98</v>
       </c>
@@ -15596,7 +15731,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>99</v>
       </c>
@@ -15788,18 +15923,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15821,18 +15956,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{399DC29E-0841-4325-8FEA-D0E638A27E04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D330BE-5E44-498F-AC6A-46F929BFA84E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{399DC29E-0841-4325-8FEA-D0E638A27E04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/BPPS hh instrument pre-codebook.xlsx
+++ b/data/BPPS hh instrument pre-codebook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff.yang\Documents\BPPS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Private\dkillian\AMELA\BPPS\workflowr\USAID Baseline Public Perception Survey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04E76C-EBBD-4D27-AAE7-17046FB0A04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="917" firstSheet="11" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="varnames" sheetId="1" r:id="rId1"/>
@@ -39,22 +40,23 @@
     <sheet name="projects_dislike" sheetId="18" r:id="rId25"/>
     <sheet name="participated_type" sheetId="19" r:id="rId26"/>
     <sheet name="direction" sheetId="20" r:id="rId27"/>
-    <sheet name="corruption" sheetId="21" r:id="rId28"/>
-    <sheet name="paid_who" sheetId="22" r:id="rId29"/>
-    <sheet name="security_source" sheetId="28" r:id="rId30"/>
-    <sheet name="symptoms" sheetId="27" r:id="rId31"/>
-    <sheet name="likely" sheetId="32" r:id="rId32"/>
-    <sheet name="helpful" sheetId="30" r:id="rId33"/>
-    <sheet name="count" sheetId="33" r:id="rId34"/>
-    <sheet name="occupation" sheetId="35" r:id="rId35"/>
-    <sheet name="violence_who" sheetId="34" r:id="rId36"/>
-    <sheet name="sex" sheetId="2" r:id="rId37"/>
-    <sheet name="female" sheetId="3" r:id="rId38"/>
-    <sheet name="marital_status" sheetId="39" r:id="rId39"/>
-    <sheet name="comprehension" sheetId="37" r:id="rId40"/>
-    <sheet name="comfort" sheetId="38" r:id="rId41"/>
-    <sheet name="backcheck" sheetId="40" r:id="rId42"/>
-    <sheet name="ethnic_group" sheetId="41" r:id="rId43"/>
+    <sheet name="job" sheetId="44" r:id="rId28"/>
+    <sheet name="corruption" sheetId="21" r:id="rId29"/>
+    <sheet name="paid_who" sheetId="22" r:id="rId30"/>
+    <sheet name="security_source" sheetId="28" r:id="rId31"/>
+    <sheet name="symptoms" sheetId="27" r:id="rId32"/>
+    <sheet name="likely" sheetId="32" r:id="rId33"/>
+    <sheet name="helpful" sheetId="30" r:id="rId34"/>
+    <sheet name="count" sheetId="33" r:id="rId35"/>
+    <sheet name="occupation" sheetId="35" r:id="rId36"/>
+    <sheet name="violence_who" sheetId="34" r:id="rId37"/>
+    <sheet name="sex" sheetId="2" r:id="rId38"/>
+    <sheet name="female" sheetId="3" r:id="rId39"/>
+    <sheet name="marital_status" sheetId="39" r:id="rId40"/>
+    <sheet name="comprehension" sheetId="37" r:id="rId41"/>
+    <sheet name="comfort" sheetId="38" r:id="rId42"/>
+    <sheet name="backcheck" sheetId="40" r:id="rId43"/>
+    <sheet name="ethnic_group" sheetId="41" r:id="rId44"/>
   </sheets>
   <definedNames>
     <definedName name="_26in1rg">varnames!$F$314</definedName>
@@ -67,20 +69,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="1276">
   <si>
     <t>serial</t>
   </si>
@@ -3904,11 +3898,29 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>job_lab</t>
+  </si>
+  <si>
+    <t>Somewhat bad job</t>
+  </si>
+  <si>
+    <t>Somewhat good job</t>
+  </si>
+  <si>
+    <t>Very good job</t>
+  </si>
+  <si>
+    <t>Very bad job</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4437,7 +4449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4445,19 +4457,19 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.81640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.77734375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4480,7 +4492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -4501,7 +4513,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -4522,7 +4534,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -4541,7 +4553,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -4560,7 +4572,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -4581,7 +4593,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -4650,7 +4662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -4696,7 +4708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -4717,7 +4729,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4738,7 +4750,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -4759,7 +4771,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -4780,7 +4792,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -4801,7 +4813,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -4822,7 +4834,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -4843,7 +4855,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -4864,7 +4876,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -4885,7 +4897,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -4906,7 +4918,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -4927,7 +4939,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -4948,7 +4960,7 @@
       </c>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -4969,7 +4981,7 @@
       </c>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -4990,7 +5002,7 @@
       </c>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -5011,7 +5023,7 @@
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5032,7 +5044,7 @@
       </c>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -5055,7 +5067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -5076,7 +5088,7 @@
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -5097,7 +5109,7 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -5118,7 +5130,7 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -5141,7 +5153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>33</v>
       </c>
@@ -5187,7 +5199,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>34</v>
       </c>
@@ -5210,7 +5222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>35</v>
       </c>
@@ -5233,7 +5245,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -5255,7 +5267,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -5276,7 +5288,7 @@
       </c>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>38</v>
       </c>
@@ -5299,7 +5311,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -5322,7 +5334,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -5345,7 +5357,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>41</v>
       </c>
@@ -5368,7 +5380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>42</v>
       </c>
@@ -5391,7 +5403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -5414,7 +5426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -5437,7 +5449,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -5460,7 +5472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -5483,7 +5495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -5506,7 +5518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -5529,7 +5541,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -5552,7 +5564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -5575,7 +5587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -5598,7 +5610,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -5621,7 +5633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -5644,7 +5656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
         <v>54</v>
       </c>
@@ -5667,7 +5679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -5690,7 +5702,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <v>56</v>
       </c>
@@ -5713,7 +5725,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <v>57</v>
       </c>
@@ -5736,7 +5748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -5759,7 +5771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -5782,7 +5794,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -5805,7 +5817,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -5828,7 +5840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="21">
         <v>62</v>
       </c>
@@ -5849,7 +5861,7 @@
       </c>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
         <v>63</v>
       </c>
@@ -5870,7 +5882,7 @@
       </c>
       <c r="G64" s="22"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>64</v>
       </c>
@@ -5891,7 +5903,7 @@
       </c>
       <c r="G65" s="22"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>65</v>
       </c>
@@ -5912,7 +5924,7 @@
       </c>
       <c r="G66" s="22"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>66</v>
       </c>
@@ -5933,7 +5945,7 @@
       </c>
       <c r="G67" s="22"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <v>67</v>
       </c>
@@ -5954,7 +5966,7 @@
       </c>
       <c r="G68" s="22"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
         <v>68</v>
       </c>
@@ -5977,7 +5989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
         <v>69</v>
       </c>
@@ -5998,7 +6010,7 @@
       </c>
       <c r="G70" s="22"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="21">
         <v>70</v>
       </c>
@@ -6019,7 +6031,7 @@
       </c>
       <c r="G71" s="22"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="21">
         <v>71</v>
       </c>
@@ -6040,7 +6052,7 @@
       </c>
       <c r="G72" s="22"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="21">
         <v>72</v>
       </c>
@@ -6061,7 +6073,7 @@
       </c>
       <c r="G73" s="22"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
         <v>73</v>
       </c>
@@ -6082,7 +6094,7 @@
       </c>
       <c r="G74" s="22"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>74</v>
       </c>
@@ -6103,7 +6115,7 @@
       </c>
       <c r="G75" s="22"/>
     </row>
-    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <v>75</v>
       </c>
@@ -6126,7 +6138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>76</v>
       </c>
@@ -6149,7 +6161,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -6170,7 +6182,7 @@
       </c>
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -6191,7 +6203,7 @@
       </c>
       <c r="G79" s="26"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -6212,7 +6224,7 @@
       </c>
       <c r="G80" s="26"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -6233,7 +6245,7 @@
       </c>
       <c r="G81" s="26"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -6254,7 +6266,7 @@
       </c>
       <c r="G82" s="26"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -6275,7 +6287,7 @@
       </c>
       <c r="G83" s="26"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -6296,7 +6308,7 @@
       </c>
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -6317,7 +6329,7 @@
       </c>
       <c r="G85" s="26"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -6338,7 +6350,7 @@
       </c>
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>86</v>
       </c>
@@ -6359,7 +6371,7 @@
       </c>
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>87</v>
       </c>
@@ -6380,7 +6392,7 @@
       </c>
       <c r="G88" s="26"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>88</v>
       </c>
@@ -6401,7 +6413,7 @@
       </c>
       <c r="G89" s="26"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <v>89</v>
       </c>
@@ -6422,7 +6434,7 @@
       </c>
       <c r="G90" s="26"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>90</v>
       </c>
@@ -6443,7 +6455,7 @@
       </c>
       <c r="G91" s="26"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>91</v>
       </c>
@@ -6464,7 +6476,7 @@
       </c>
       <c r="G92" s="26"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>92</v>
       </c>
@@ -6485,7 +6497,7 @@
       </c>
       <c r="G93" s="26"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>93</v>
       </c>
@@ -6506,7 +6518,7 @@
       </c>
       <c r="G94" s="26"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -6527,7 +6539,7 @@
       </c>
       <c r="G95" s="26"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -6548,7 +6560,7 @@
       </c>
       <c r="G96" s="26"/>
     </row>
-    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -6571,7 +6583,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>97</v>
       </c>
@@ -6594,7 +6606,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -6617,7 +6629,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>99</v>
       </c>
@@ -6640,7 +6652,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -6663,7 +6675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -6686,7 +6698,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -6709,7 +6721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>103</v>
       </c>
@@ -6732,7 +6744,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>104</v>
       </c>
@@ -6755,7 +6767,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>105</v>
       </c>
@@ -6778,7 +6790,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>106</v>
       </c>
@@ -6801,7 +6813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>107</v>
       </c>
@@ -6824,7 +6836,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>108</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>109</v>
       </c>
@@ -6870,7 +6882,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>110</v>
       </c>
@@ -6893,7 +6905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>111</v>
       </c>
@@ -6916,7 +6928,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>112</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <v>113</v>
       </c>
@@ -6962,7 +6974,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
         <v>114</v>
       </c>
@@ -6985,7 +6997,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
         <v>115</v>
       </c>
@@ -7008,7 +7020,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
         <v>116</v>
       </c>
@@ -7031,7 +7043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="21">
         <v>117</v>
       </c>
@@ -7052,7 +7064,7 @@
       </c>
       <c r="G118" s="22"/>
     </row>
-    <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>118</v>
       </c>
@@ -7075,7 +7087,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
         <v>119</v>
       </c>
@@ -7096,7 +7108,7 @@
       </c>
       <c r="G120" s="22"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="21">
         <v>120</v>
       </c>
@@ -7117,7 +7129,7 @@
       </c>
       <c r="G121" s="22"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <v>121</v>
       </c>
@@ -7140,7 +7152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
         <v>122</v>
       </c>
@@ -7163,7 +7175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
         <v>123</v>
       </c>
@@ -7186,7 +7198,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
         <v>124</v>
       </c>
@@ -7209,7 +7221,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
         <v>125</v>
       </c>
@@ -7232,7 +7244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
         <v>126</v>
       </c>
@@ -7255,7 +7267,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
         <v>127</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="21">
         <v>128</v>
       </c>
@@ -7301,7 +7313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
         <v>129</v>
       </c>
@@ -7324,7 +7336,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
         <v>130</v>
       </c>
@@ -7347,7 +7359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
         <v>131</v>
       </c>
@@ -7370,7 +7382,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
         <v>132</v>
       </c>
@@ -7393,7 +7405,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
         <v>133</v>
       </c>
@@ -7416,7 +7428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
         <v>134</v>
       </c>
@@ -7439,7 +7451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
         <v>135</v>
       </c>
@@ -7462,7 +7474,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
         <v>136</v>
       </c>
@@ -7485,7 +7497,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
         <v>137</v>
       </c>
@@ -7508,7 +7520,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
         <v>138</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="21">
         <v>139</v>
       </c>
@@ -7554,7 +7566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
         <v>140</v>
       </c>
@@ -7577,7 +7589,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
         <v>141</v>
       </c>
@@ -7600,7 +7612,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
         <v>142</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
         <v>143</v>
       </c>
@@ -7646,7 +7658,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="21">
         <v>144</v>
       </c>
@@ -7669,7 +7681,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
         <v>145</v>
       </c>
@@ -7692,7 +7704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
         <v>146</v>
       </c>
@@ -7715,7 +7727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
         <v>147</v>
       </c>
@@ -7738,7 +7750,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="21">
         <v>148</v>
       </c>
@@ -7761,7 +7773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="21">
         <v>149</v>
       </c>
@@ -7784,7 +7796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="21">
         <v>150</v>
       </c>
@@ -7807,7 +7819,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="21">
         <v>151</v>
       </c>
@@ -7830,7 +7842,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="21">
         <v>152</v>
       </c>
@@ -7853,7 +7865,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="21">
         <v>153</v>
       </c>
@@ -7876,7 +7888,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="21">
         <v>154</v>
       </c>
@@ -7895,7 +7907,7 @@
       </c>
       <c r="G155" s="25"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="21">
         <v>155</v>
       </c>
@@ -7914,7 +7926,7 @@
       </c>
       <c r="G156" s="25"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="21">
         <v>156</v>
       </c>
@@ -7933,7 +7945,7 @@
       </c>
       <c r="G157" s="25"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="21">
         <v>157</v>
       </c>
@@ -7952,7 +7964,7 @@
       </c>
       <c r="G158" s="25"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="21">
         <v>158</v>
       </c>
@@ -7971,7 +7983,7 @@
       </c>
       <c r="G159" s="25"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="21">
         <v>159</v>
       </c>
@@ -7990,7 +8002,7 @@
       </c>
       <c r="G160" s="25"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="21">
         <v>160</v>
       </c>
@@ -8013,7 +8025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="21">
         <v>161</v>
       </c>
@@ -8036,7 +8048,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="21">
         <v>162</v>
       </c>
@@ -8059,7 +8071,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="21">
         <v>163</v>
       </c>
@@ -8082,7 +8094,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="21">
         <v>164</v>
       </c>
@@ -8105,7 +8117,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="21">
         <v>165</v>
       </c>
@@ -8128,7 +8140,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="21">
         <v>166</v>
       </c>
@@ -8151,7 +8163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="21">
         <v>167</v>
       </c>
@@ -8174,7 +8186,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="21">
         <v>168</v>
       </c>
@@ -8197,7 +8209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="21">
         <v>169</v>
       </c>
@@ -8220,7 +8232,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="21">
         <v>170</v>
       </c>
@@ -8243,7 +8255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="21">
         <v>171</v>
       </c>
@@ -8266,7 +8278,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="21">
         <v>172</v>
       </c>
@@ -8289,7 +8301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="21">
         <v>173</v>
       </c>
@@ -8312,7 +8324,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="21">
         <v>174</v>
       </c>
@@ -8335,7 +8347,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="21">
         <v>175</v>
       </c>
@@ -8358,7 +8370,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="21">
         <v>176</v>
       </c>
@@ -8381,7 +8393,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="21">
         <v>177</v>
       </c>
@@ -8404,7 +8416,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="21">
         <v>178</v>
       </c>
@@ -8427,7 +8439,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="21">
         <v>179</v>
       </c>
@@ -8450,7 +8462,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="21">
         <v>180</v>
       </c>
@@ -8473,7 +8485,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="21">
         <v>181</v>
       </c>
@@ -8494,7 +8506,7 @@
       </c>
       <c r="G182" s="22"/>
     </row>
-    <row r="183" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="21">
         <v>182</v>
       </c>
@@ -8515,7 +8527,7 @@
       </c>
       <c r="G183" s="22"/>
     </row>
-    <row r="184" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="21">
         <v>183</v>
       </c>
@@ -8536,7 +8548,7 @@
       </c>
       <c r="G184" s="22"/>
     </row>
-    <row r="185" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="21">
         <v>184</v>
       </c>
@@ -8557,7 +8569,7 @@
       </c>
       <c r="G185" s="22"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="21">
         <v>185</v>
       </c>
@@ -8578,7 +8590,7 @@
       </c>
       <c r="G186" s="26"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="21">
         <v>186</v>
       </c>
@@ -8599,7 +8611,7 @@
       </c>
       <c r="G187" s="26"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="21">
         <v>187</v>
       </c>
@@ -8620,7 +8632,7 @@
       </c>
       <c r="G188" s="26"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="21">
         <v>188</v>
       </c>
@@ -8641,7 +8653,7 @@
       </c>
       <c r="G189" s="26"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="21">
         <v>189</v>
       </c>
@@ -8662,7 +8674,7 @@
       </c>
       <c r="G190" s="26"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="21">
         <v>190</v>
       </c>
@@ -8683,7 +8695,7 @@
       </c>
       <c r="G191" s="26"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="21">
         <v>191</v>
       </c>
@@ -8704,7 +8716,7 @@
       </c>
       <c r="G192" s="26"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="21">
         <v>192</v>
       </c>
@@ -8725,7 +8737,7 @@
       </c>
       <c r="G193" s="26"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="21">
         <v>193</v>
       </c>
@@ -8746,7 +8758,7 @@
       </c>
       <c r="G194" s="26"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="21">
         <v>194</v>
       </c>
@@ -8767,7 +8779,7 @@
       </c>
       <c r="G195" s="26"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="21">
         <v>195</v>
       </c>
@@ -8788,7 +8800,7 @@
       </c>
       <c r="G196" s="26"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="21">
         <v>196</v>
       </c>
@@ -8809,7 +8821,7 @@
       </c>
       <c r="G197" s="26"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="21">
         <v>197</v>
       </c>
@@ -8830,7 +8842,7 @@
       </c>
       <c r="G198" s="26"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="21">
         <v>198</v>
       </c>
@@ -8851,7 +8863,7 @@
       </c>
       <c r="G199" s="26"/>
     </row>
-    <row r="200" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="21">
         <v>199</v>
       </c>
@@ -8874,7 +8886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="21">
         <v>200</v>
       </c>
@@ -8895,7 +8907,7 @@
       </c>
       <c r="G201" s="26"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="21">
         <v>201</v>
       </c>
@@ -8916,7 +8928,7 @@
       </c>
       <c r="G202" s="26"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="21">
         <v>202</v>
       </c>
@@ -8937,7 +8949,7 @@
       </c>
       <c r="G203" s="26"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="21">
         <v>203</v>
       </c>
@@ -8958,7 +8970,7 @@
       </c>
       <c r="G204" s="26"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="21">
         <v>204</v>
       </c>
@@ -8979,7 +8991,7 @@
       </c>
       <c r="G205" s="26"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="21">
         <v>205</v>
       </c>
@@ -9000,7 +9012,7 @@
       </c>
       <c r="G206" s="26"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="21">
         <v>206</v>
       </c>
@@ -9021,7 +9033,7 @@
       </c>
       <c r="G207" s="26"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="21">
         <v>207</v>
       </c>
@@ -9042,7 +9054,7 @@
       </c>
       <c r="G208" s="26"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="21">
         <v>208</v>
       </c>
@@ -9063,7 +9075,7 @@
       </c>
       <c r="G209" s="26"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="21">
         <v>209</v>
       </c>
@@ -9084,7 +9096,7 @@
       </c>
       <c r="G210" s="26"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="21">
         <v>210</v>
       </c>
@@ -9105,7 +9117,7 @@
       </c>
       <c r="G211" s="26"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="21">
         <v>211</v>
       </c>
@@ -9126,7 +9138,7 @@
       </c>
       <c r="G212" s="26"/>
     </row>
-    <row r="213" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="21">
         <v>212</v>
       </c>
@@ -9147,7 +9159,7 @@
       </c>
       <c r="G213" s="22"/>
     </row>
-    <row r="214" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="21">
         <v>213</v>
       </c>
@@ -9170,7 +9182,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="21">
         <v>214</v>
       </c>
@@ -9191,7 +9203,7 @@
       </c>
       <c r="G215" s="22"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="21">
         <v>215</v>
       </c>
@@ -9212,7 +9224,7 @@
       </c>
       <c r="G216" s="22"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="21">
         <v>216</v>
       </c>
@@ -9233,7 +9245,7 @@
       </c>
       <c r="G217" s="22"/>
     </row>
-    <row r="218" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="21">
         <v>217</v>
       </c>
@@ -9256,7 +9268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="21">
         <v>218</v>
       </c>
@@ -9279,7 +9291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="21">
         <v>219</v>
       </c>
@@ -9302,7 +9314,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="21">
         <v>220</v>
       </c>
@@ -9325,7 +9337,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="21">
         <v>221</v>
       </c>
@@ -9348,7 +9360,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="21">
         <v>222</v>
       </c>
@@ -9371,7 +9383,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="21">
         <v>223</v>
       </c>
@@ -9394,7 +9406,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="21">
         <v>224</v>
       </c>
@@ -9417,7 +9429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="21">
         <v>225</v>
       </c>
@@ -9438,7 +9450,7 @@
       </c>
       <c r="G226" s="26"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="21">
         <v>226</v>
       </c>
@@ -9459,7 +9471,7 @@
       </c>
       <c r="G227" s="26"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="21">
         <v>227</v>
       </c>
@@ -9480,7 +9492,7 @@
       </c>
       <c r="G228" s="26"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="21">
         <v>228</v>
       </c>
@@ -9501,7 +9513,7 @@
       </c>
       <c r="G229" s="26"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="21">
         <v>229</v>
       </c>
@@ -9522,7 +9534,7 @@
       </c>
       <c r="G230" s="26"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="21">
         <v>230</v>
       </c>
@@ -9543,7 +9555,7 @@
       </c>
       <c r="G231" s="26"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="21">
         <v>231</v>
       </c>
@@ -9560,7 +9572,7 @@
       </c>
       <c r="G232" s="26"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="21">
         <v>232</v>
       </c>
@@ -9577,7 +9589,7 @@
       </c>
       <c r="G233" s="26"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="21">
         <v>233</v>
       </c>
@@ -9594,7 +9606,7 @@
       </c>
       <c r="G234" s="26"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="21">
         <v>234</v>
       </c>
@@ -9611,7 +9623,7 @@
       </c>
       <c r="G235" s="26"/>
     </row>
-    <row r="236" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="21">
         <v>235</v>
       </c>
@@ -9634,7 +9646,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="21">
         <v>236</v>
       </c>
@@ -9657,7 +9669,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A238" s="21">
         <v>237</v>
       </c>
@@ -9680,7 +9692,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="21">
         <v>238</v>
       </c>
@@ -9703,7 +9715,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A240" s="21">
         <v>239</v>
       </c>
@@ -9726,7 +9738,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="21">
         <v>240</v>
       </c>
@@ -9747,7 +9759,7 @@
       </c>
       <c r="G241" s="26"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="21">
         <v>241</v>
       </c>
@@ -9768,7 +9780,7 @@
       </c>
       <c r="G242" s="26"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="21">
         <v>242</v>
       </c>
@@ -9789,7 +9801,7 @@
       </c>
       <c r="G243" s="26"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="21">
         <v>243</v>
       </c>
@@ -9810,7 +9822,7 @@
       </c>
       <c r="G244" s="26"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="21">
         <v>244</v>
       </c>
@@ -9831,7 +9843,7 @@
       </c>
       <c r="G245" s="26"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="21">
         <v>245</v>
       </c>
@@ -9852,7 +9864,7 @@
       </c>
       <c r="G246" s="26"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="21">
         <v>246</v>
       </c>
@@ -9873,7 +9885,7 @@
       </c>
       <c r="G247" s="26"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="21">
         <v>247</v>
       </c>
@@ -9894,7 +9906,7 @@
       </c>
       <c r="G248" s="26"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="21">
         <v>248</v>
       </c>
@@ -9915,7 +9927,7 @@
       </c>
       <c r="G249" s="26"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="21">
         <v>249</v>
       </c>
@@ -9936,7 +9948,7 @@
       </c>
       <c r="G250" s="26"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="21">
         <v>250</v>
       </c>
@@ -9957,7 +9969,7 @@
       </c>
       <c r="G251" s="26"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="21">
         <v>251</v>
       </c>
@@ -9975,7 +9987,7 @@
       </c>
       <c r="G252" s="26"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="21">
         <v>252</v>
       </c>
@@ -9996,7 +10008,7 @@
       </c>
       <c r="G253" s="26"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="21">
         <v>253</v>
       </c>
@@ -10017,7 +10029,7 @@
       </c>
       <c r="G254" s="26"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="21">
         <v>254</v>
       </c>
@@ -10038,7 +10050,7 @@
       </c>
       <c r="G255" s="26"/>
     </row>
-    <row r="256" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="21">
         <v>255</v>
       </c>
@@ -10061,7 +10073,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="21">
         <v>256</v>
       </c>
@@ -10082,7 +10094,7 @@
       </c>
       <c r="G257" s="26"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="21">
         <v>257</v>
       </c>
@@ -10103,7 +10115,7 @@
       </c>
       <c r="G258" s="26"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="21">
         <v>258</v>
       </c>
@@ -10124,7 +10136,7 @@
       </c>
       <c r="G259" s="26"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="21">
         <v>259</v>
       </c>
@@ -10145,7 +10157,7 @@
       </c>
       <c r="G260" s="26"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="21">
         <v>260</v>
       </c>
@@ -10166,7 +10178,7 @@
       </c>
       <c r="G261" s="26"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="21">
         <v>261</v>
       </c>
@@ -10187,7 +10199,7 @@
       </c>
       <c r="G262" s="26"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="21">
         <v>262</v>
       </c>
@@ -10208,7 +10220,7 @@
       </c>
       <c r="G263" s="26"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="21">
         <v>263</v>
       </c>
@@ -10229,7 +10241,7 @@
       </c>
       <c r="G264" s="26"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="21">
         <v>264</v>
       </c>
@@ -10250,7 +10262,7 @@
       </c>
       <c r="G265" s="26"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="21">
         <v>265</v>
       </c>
@@ -10271,7 +10283,7 @@
       </c>
       <c r="G266" s="26"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="21">
         <v>266</v>
       </c>
@@ -10292,7 +10304,7 @@
       </c>
       <c r="G267" s="26"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="21">
         <v>267</v>
       </c>
@@ -10310,7 +10322,7 @@
       </c>
       <c r="G268" s="26"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="21">
         <v>268</v>
       </c>
@@ -10331,7 +10343,7 @@
       </c>
       <c r="G269" s="26"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="21">
         <v>269</v>
       </c>
@@ -10352,7 +10364,7 @@
       </c>
       <c r="G270" s="26"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="21">
         <v>270</v>
       </c>
@@ -10371,7 +10383,7 @@
       </c>
       <c r="G271" s="26"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="21">
         <v>271</v>
       </c>
@@ -10392,7 +10404,7 @@
       </c>
       <c r="G272" s="26"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="21">
         <v>272</v>
       </c>
@@ -10413,7 +10425,7 @@
       </c>
       <c r="G273" s="26"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="21">
         <v>273</v>
       </c>
@@ -10434,7 +10446,7 @@
       </c>
       <c r="G274" s="26"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="21">
         <v>274</v>
       </c>
@@ -10455,7 +10467,7 @@
       </c>
       <c r="G275" s="26"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="21">
         <v>275</v>
       </c>
@@ -10476,7 +10488,7 @@
       </c>
       <c r="G276" s="26"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="21">
         <v>276</v>
       </c>
@@ -10497,7 +10509,7 @@
       </c>
       <c r="G277" s="26"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="21">
         <v>277</v>
       </c>
@@ -10518,7 +10530,7 @@
       </c>
       <c r="G278" s="26"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="21">
         <v>278</v>
       </c>
@@ -10539,7 +10551,7 @@
       </c>
       <c r="G279" s="26"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="21">
         <v>279</v>
       </c>
@@ -10560,7 +10572,7 @@
       </c>
       <c r="G280" s="26"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="21">
         <v>280</v>
       </c>
@@ -10581,7 +10593,7 @@
       </c>
       <c r="G281" s="26"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="21">
         <v>281</v>
       </c>
@@ -10602,7 +10614,7 @@
       </c>
       <c r="G282" s="26"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="21">
         <v>282</v>
       </c>
@@ -10623,7 +10635,7 @@
       </c>
       <c r="G283" s="26"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="21">
         <v>283</v>
       </c>
@@ -10644,7 +10656,7 @@
       </c>
       <c r="G284" s="26"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="21">
         <v>284</v>
       </c>
@@ -10664,7 +10676,7 @@
       <c r="G285" s="26"/>
       <c r="H285" s="15"/>
     </row>
-    <row r="286" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="21">
         <v>285</v>
       </c>
@@ -10687,7 +10699,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="21">
         <v>286</v>
       </c>
@@ -10710,7 +10722,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="21">
         <v>287</v>
       </c>
@@ -10733,7 +10745,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="21">
         <v>288</v>
       </c>
@@ -10756,7 +10768,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="21">
         <v>289</v>
       </c>
@@ -10779,7 +10791,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="21">
         <v>290</v>
       </c>
@@ -10802,7 +10814,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="21">
         <v>291</v>
       </c>
@@ -10825,7 +10837,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="21">
         <v>292</v>
       </c>
@@ -10846,7 +10858,7 @@
       </c>
       <c r="G293" s="22"/>
     </row>
-    <row r="294" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="21">
         <v>293</v>
       </c>
@@ -10869,7 +10881,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="21">
         <v>294</v>
       </c>
@@ -10890,7 +10902,7 @@
       </c>
       <c r="G295" s="22"/>
     </row>
-    <row r="296" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="21">
         <v>295</v>
       </c>
@@ -10913,7 +10925,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="21">
         <v>296</v>
       </c>
@@ -10934,7 +10946,7 @@
       </c>
       <c r="G297" s="22"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="21">
         <v>297</v>
       </c>
@@ -10955,7 +10967,7 @@
       </c>
       <c r="G298" s="22"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="21">
         <v>298</v>
       </c>
@@ -10976,7 +10988,7 @@
       </c>
       <c r="G299" s="22"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="21">
         <v>299</v>
       </c>
@@ -10997,7 +11009,7 @@
       </c>
       <c r="G300" s="22"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="21">
         <v>300</v>
       </c>
@@ -11018,7 +11030,7 @@
       </c>
       <c r="G301" s="22"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="21">
         <v>301</v>
       </c>
@@ -11039,7 +11051,7 @@
       </c>
       <c r="G302" s="22"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="21">
         <v>302</v>
       </c>
@@ -11060,7 +11072,7 @@
       </c>
       <c r="G303" s="22"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="21">
         <v>303</v>
       </c>
@@ -11081,7 +11093,7 @@
       </c>
       <c r="G304" s="22"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="21">
         <v>304</v>
       </c>
@@ -11102,7 +11114,7 @@
       </c>
       <c r="G305" s="22"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="21">
         <v>305</v>
       </c>
@@ -11123,7 +11135,7 @@
       </c>
       <c r="G306" s="22"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="21">
         <v>306</v>
       </c>
@@ -11144,7 +11156,7 @@
       </c>
       <c r="G307" s="22"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="21">
         <v>307</v>
       </c>
@@ -11165,7 +11177,7 @@
       </c>
       <c r="G308" s="22"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="21">
         <v>308</v>
       </c>
@@ -11186,7 +11198,7 @@
       </c>
       <c r="G309" s="22"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="21">
         <v>309</v>
       </c>
@@ -11207,7 +11219,7 @@
       </c>
       <c r="G310" s="22"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="21">
         <v>310</v>
       </c>
@@ -11228,7 +11240,7 @@
       </c>
       <c r="G311" s="22"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="21">
         <v>311</v>
       </c>
@@ -11249,7 +11261,7 @@
       </c>
       <c r="G312" s="22"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="21">
         <v>312</v>
       </c>
@@ -11270,7 +11282,7 @@
       </c>
       <c r="G313" s="22"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="21">
         <v>313</v>
       </c>
@@ -11291,7 +11303,7 @@
       </c>
       <c r="G314" s="22"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="21">
         <v>314</v>
       </c>
@@ -11312,7 +11324,7 @@
       </c>
       <c r="G315" s="22"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="21">
         <v>315</v>
       </c>
@@ -11333,7 +11345,7 @@
       </c>
       <c r="G316" s="22"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="21">
         <v>316</v>
       </c>
@@ -11354,7 +11366,7 @@
       </c>
       <c r="G317" s="22"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="21">
         <v>317</v>
       </c>
@@ -11375,7 +11387,7 @@
       </c>
       <c r="G318" s="22"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="21">
         <v>318</v>
       </c>
@@ -11396,7 +11408,7 @@
       </c>
       <c r="G319" s="22"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="21">
         <v>319</v>
       </c>
@@ -11417,7 +11429,7 @@
       </c>
       <c r="G320" s="22"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="21">
         <v>320</v>
       </c>
@@ -11438,7 +11450,7 @@
       </c>
       <c r="G321" s="22"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="21">
         <v>321</v>
       </c>
@@ -11459,7 +11471,7 @@
       </c>
       <c r="G322" s="22"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="21">
         <v>322</v>
       </c>
@@ -11480,7 +11492,7 @@
       </c>
       <c r="G323" s="22"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="21">
         <v>323</v>
       </c>
@@ -11501,7 +11513,7 @@
       </c>
       <c r="G324" s="22"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="21">
         <v>324</v>
       </c>
@@ -11524,7 +11536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="21">
         <v>325</v>
       </c>
@@ -11547,7 +11559,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="21">
         <v>326</v>
       </c>
@@ -11568,7 +11580,7 @@
       </c>
       <c r="G327" s="22"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="21">
         <v>327</v>
       </c>
@@ -11585,7 +11597,7 @@
       </c>
       <c r="G328" s="33"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="21">
         <v>328</v>
       </c>
@@ -11608,7 +11620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="21">
         <v>329</v>
       </c>
@@ -11629,7 +11641,7 @@
       </c>
       <c r="G330" s="22"/>
     </row>
-    <row r="331" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="21">
         <v>330</v>
       </c>
@@ -11650,7 +11662,7 @@
       </c>
       <c r="G331" s="22"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="21">
         <v>331</v>
       </c>
@@ -11673,7 +11685,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="21">
         <v>332</v>
       </c>
@@ -11696,7 +11708,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="21">
         <v>333</v>
       </c>
@@ -11719,7 +11731,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="21">
         <v>334</v>
       </c>
@@ -11740,7 +11752,7 @@
       </c>
       <c r="G335" s="22"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="21">
         <v>335</v>
       </c>
@@ -11761,7 +11773,7 @@
       </c>
       <c r="G336" s="22"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="21">
         <v>336</v>
       </c>
@@ -11782,7 +11794,7 @@
       </c>
       <c r="G337" s="22"/>
     </row>
-    <row r="338" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A338" s="21">
         <v>337</v>
       </c>
@@ -11805,7 +11817,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="21">
         <v>338</v>
       </c>
@@ -11828,7 +11840,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="21">
         <v>339</v>
       </c>
@@ -11851,7 +11863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="21">
         <v>340</v>
       </c>
@@ -11874,7 +11886,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="21">
         <v>341</v>
       </c>
@@ -11895,7 +11907,7 @@
       </c>
       <c r="G342" s="22"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="24"/>
       <c r="B343" s="24"/>
       <c r="C343" s="24"/>
@@ -11904,7 +11916,7 @@
       <c r="F343" s="28"/>
       <c r="G343" s="22"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="24"/>
       <c r="B344" s="24"/>
       <c r="C344" s="24"/>
@@ -11913,7 +11925,7 @@
       <c r="F344" s="28"/>
       <c r="G344" s="22"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="24"/>
       <c r="B345" s="24"/>
       <c r="C345" s="24"/>
@@ -11922,7 +11934,7 @@
       <c r="F345" s="28"/>
       <c r="G345" s="22"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="24"/>
       <c r="B346" s="24"/>
       <c r="C346" s="24"/>
@@ -11931,7 +11943,7 @@
       <c r="F346" s="28"/>
       <c r="G346" s="22"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="24"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
@@ -11940,7 +11952,7 @@
       <c r="F347" s="28"/>
       <c r="G347" s="22"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="24"/>
       <c r="B348" s="24"/>
       <c r="C348" s="24"/>
@@ -11949,7 +11961,7 @@
       <c r="F348" s="28"/>
       <c r="G348" s="22"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="24"/>
       <c r="B349" s="24"/>
       <c r="C349" s="24"/>
@@ -11958,7 +11970,7 @@
       <c r="F349" s="28"/>
       <c r="G349" s="22"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="24"/>
       <c r="B350" s="24"/>
       <c r="C350" s="24"/>
@@ -11967,7 +11979,7 @@
       <c r="F350" s="28"/>
       <c r="G350" s="22"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="24"/>
       <c r="B351" s="24"/>
       <c r="C351" s="24"/>
@@ -11976,7 +11988,7 @@
       <c r="F351" s="28"/>
       <c r="G351" s="22"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="24"/>
       <c r="B352" s="24"/>
       <c r="C352" s="24"/>
@@ -11985,7 +11997,7 @@
       <c r="F352" s="28"/>
       <c r="G352" s="22"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="24"/>
       <c r="B353" s="24"/>
       <c r="C353" s="24"/>
@@ -11994,37 +12006,37 @@
       <c r="F353" s="28"/>
       <c r="G353" s="22"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C354" s="24"/>
       <c r="E354" s="22"/>
       <c r="F354" s="28"/>
       <c r="G354" s="22"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C355" s="24"/>
       <c r="E355" s="22"/>
       <c r="F355" s="28"/>
       <c r="G355" s="22"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C356" s="24"/>
       <c r="E356" s="22"/>
       <c r="F356" s="28"/>
       <c r="G356" s="22"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C357" s="24"/>
       <c r="E357" s="22"/>
       <c r="F357" s="28"/>
       <c r="G357" s="22"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C358" s="24"/>
       <c r="E358" s="22"/>
       <c r="F358" s="28"/>
       <c r="G358" s="22"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C359" s="24"/>
       <c r="E359" s="22"/>
       <c r="F359" s="28"/>
@@ -12036,20 +12048,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
@@ -12057,7 +12069,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12065,7 +12077,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12073,7 +12085,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12081,7 +12093,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12089,7 +12101,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12097,7 +12109,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>98</v>
       </c>
@@ -12105,7 +12117,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -12119,20 +12131,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>922</v>
       </c>
@@ -12140,7 +12152,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12148,7 +12160,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12156,7 +12168,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12164,7 +12176,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12172,7 +12184,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12180,7 +12192,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>97</v>
       </c>
@@ -12188,7 +12200,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>98</v>
       </c>
@@ -12196,7 +12208,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>99</v>
       </c>
@@ -12210,16 +12222,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1260</v>
       </c>
@@ -12227,7 +12239,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12235,7 +12247,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12243,7 +12255,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12251,7 +12263,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12259,7 +12271,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12267,7 +12279,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12275,7 +12287,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12283,7 +12295,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>97</v>
       </c>
@@ -12291,7 +12303,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>98</v>
       </c>
@@ -12299,7 +12311,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>99</v>
       </c>
@@ -12313,18 +12325,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>929</v>
       </c>
@@ -12332,7 +12344,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12340,7 +12352,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -12348,7 +12360,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -12356,7 +12368,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -12364,7 +12376,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -12372,7 +12384,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>98</v>
       </c>
@@ -12380,7 +12392,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>99</v>
       </c>
@@ -12394,19 +12406,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>740</v>
       </c>
@@ -12414,7 +12426,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12422,7 +12434,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12430,7 +12442,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12438,7 +12450,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12446,7 +12458,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12454,7 +12466,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>98</v>
       </c>
@@ -12462,7 +12474,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -12476,20 +12488,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>941</v>
       </c>
@@ -12497,7 +12509,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12505,7 +12517,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12513,7 +12525,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12521,7 +12533,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12529,7 +12541,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12537,7 +12549,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12545,7 +12557,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12553,7 +12565,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12561,7 +12573,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12569,7 +12581,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12577,7 +12589,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12585,7 +12597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12593,7 +12605,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12601,7 +12613,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12609,7 +12621,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>96</v>
       </c>
@@ -12617,7 +12629,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>97</v>
       </c>
@@ -12625,7 +12637,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>98</v>
       </c>
@@ -12633,7 +12645,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>99</v>
       </c>
@@ -12647,16 +12659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -12664,7 +12676,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12672,7 +12684,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12680,7 +12692,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12688,7 +12700,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12696,7 +12708,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>98</v>
       </c>
@@ -12704,7 +12716,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>99</v>
       </c>
@@ -12718,14 +12730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>604</v>
       </c>
@@ -12733,7 +12745,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12741,7 +12753,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12749,7 +12761,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12757,7 +12769,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12765,7 +12777,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>98</v>
       </c>
@@ -12773,7 +12785,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>99</v>
       </c>
@@ -12787,16 +12799,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>949</v>
       </c>
@@ -12804,7 +12816,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12812,7 +12824,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12820,7 +12832,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12828,7 +12840,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12836,7 +12848,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12844,7 +12856,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12852,7 +12864,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>98</v>
       </c>
@@ -12860,7 +12872,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>99</v>
       </c>
@@ -12874,14 +12886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>956</v>
       </c>
@@ -12889,7 +12901,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12897,7 +12909,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12905,7 +12917,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12913,7 +12925,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12921,7 +12933,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12929,7 +12941,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>97</v>
       </c>
@@ -12937,7 +12949,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>98</v>
       </c>
@@ -12945,7 +12957,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>99</v>
       </c>
@@ -12959,19 +12971,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.08984375" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -12979,7 +12991,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12987,7 +12999,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -13001,16 +13013,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>567</v>
       </c>
@@ -13018,7 +13030,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13026,7 +13038,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13034,7 +13046,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13042,7 +13054,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13050,7 +13062,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13058,7 +13070,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>97</v>
       </c>
@@ -13066,7 +13078,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>98</v>
       </c>
@@ -13074,7 +13086,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>99</v>
       </c>
@@ -13088,16 +13100,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>559</v>
       </c>
@@ -13105,7 +13117,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13113,7 +13125,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13121,7 +13133,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13129,7 +13141,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13137,7 +13149,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13145,7 +13157,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>97</v>
       </c>
@@ -13153,7 +13165,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>98</v>
       </c>
@@ -13161,7 +13173,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>99</v>
       </c>
@@ -13175,20 +13187,20 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="46.90625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>387</v>
       </c>
@@ -13199,7 +13211,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13210,7 +13222,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13221,7 +13233,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13232,7 +13244,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13243,7 +13255,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13254,7 +13266,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13265,7 +13277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13276,7 +13288,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13287,7 +13299,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13298,7 +13310,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13309,7 +13321,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13320,7 +13332,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -13331,7 +13343,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>98</v>
       </c>
@@ -13342,7 +13354,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>99</v>
       </c>
@@ -13359,19 +13371,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>446</v>
       </c>
@@ -13379,7 +13391,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13387,7 +13399,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13395,7 +13407,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13403,7 +13415,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13411,7 +13423,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>98</v>
       </c>
@@ -13419,7 +13431,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>99</v>
       </c>
@@ -13433,16 +13445,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>712</v>
       </c>
@@ -13450,7 +13462,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13458,7 +13470,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13466,7 +13478,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13474,7 +13486,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13482,7 +13494,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13490,7 +13502,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>98</v>
       </c>
@@ -13498,7 +13510,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -13512,20 +13524,20 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1006</v>
       </c>
@@ -13533,7 +13545,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13541,7 +13553,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13549,7 +13561,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13557,7 +13569,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13565,7 +13577,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13573,7 +13585,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -13581,7 +13593,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13589,7 +13601,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13597,7 +13609,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13605,7 +13617,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13613,7 +13625,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -13621,7 +13633,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>98</v>
       </c>
@@ -13629,7 +13641,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>99</v>
       </c>
@@ -13643,20 +13655,20 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1008</v>
       </c>
@@ -13664,7 +13676,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13672,7 +13684,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13680,7 +13692,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13688,7 +13700,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13696,7 +13708,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13704,7 +13716,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -13712,7 +13724,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13720,7 +13732,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13728,7 +13740,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13736,7 +13748,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>98</v>
       </c>
@@ -13744,7 +13756,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>99</v>
       </c>
@@ -13758,14 +13770,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>541</v>
       </c>
@@ -13773,7 +13787,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13781,7 +13795,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13789,7 +13803,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>98</v>
       </c>
@@ -13797,7 +13811,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>99</v>
       </c>
@@ -13811,20 +13825,94 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B45B07-324D-414C-9B01-F4192D1CC666}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>575</v>
       </c>
@@ -13832,7 +13920,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13840,7 +13928,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13848,7 +13936,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13856,7 +13944,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>98</v>
       </c>
@@ -13864,7 +13952,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>99</v>
       </c>
@@ -13877,21 +13965,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="3"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1017</v>
       </c>
@@ -13899,7 +14026,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13907,7 +14034,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13915,7 +14042,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13923,7 +14050,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13931,7 +14058,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13939,7 +14066,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>98</v>
       </c>
@@ -13947,155 +14074,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>96</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
         <v>262</v>
       </c>
     </row>
@@ -14105,115 +14088,103 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="B2" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="B3" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="B4" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="B5" s="10" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="B6" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="B7" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="B8" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>96</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>98</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>99</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>710</v>
+      <c r="B11" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -14222,16 +14193,133 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>98</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>99</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>722</v>
       </c>
@@ -14239,7 +14327,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14247,7 +14335,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14255,7 +14343,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14263,7 +14351,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14271,7 +14359,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>98</v>
       </c>
@@ -14279,7 +14367,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>99</v>
       </c>
@@ -14292,17 +14380,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>716</v>
       </c>
@@ -14310,7 +14398,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14318,7 +14406,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14326,7 +14414,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14334,7 +14422,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14342,7 +14430,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14350,7 +14438,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>98</v>
       </c>
@@ -14358,84 +14446,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
         <v>262</v>
       </c>
     </row>
@@ -14445,16 +14460,89 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>734</v>
       </c>
@@ -14462,7 +14550,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14470,7 +14558,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14478,7 +14566,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14486,7 +14574,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14494,7 +14582,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14502,7 +14590,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14510,7 +14598,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14518,7 +14606,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14526,7 +14614,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14534,7 +14622,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14542,7 +14630,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14550,7 +14638,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14558,7 +14646,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14566,7 +14654,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14574,7 +14662,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14582,7 +14670,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14590,7 +14678,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14598,7 +14686,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>98</v>
       </c>
@@ -14606,157 +14694,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -14765,19 +14708,164 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.08984375" style="2"/>
+    <col min="1" max="2" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>837</v>
       </c>
@@ -14785,7 +14873,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -14793,7 +14881,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -14806,20 +14894,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.08984375" style="3"/>
+    <col min="1" max="2" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1060</v>
       </c>
@@ -14827,7 +14915,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -14835,89 +14923,12 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1063</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -14926,19 +14937,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1102</v>
       </c>
@@ -14946,7 +14957,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14954,7 +14965,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14962,7 +14973,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14970,7 +14981,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14978,7 +14989,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14986,7 +14997,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14994,7 +15005,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15002,7 +15013,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15010,7 +15021,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15018,7 +15029,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15026,7 +15037,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15034,7 +15045,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15042,7 +15053,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15050,7 +15061,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15064,20 +15075,97 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="3"/>
-    <col min="2" max="2" width="86.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>869</v>
       </c>
@@ -15085,7 +15173,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -15093,7 +15181,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -15101,7 +15189,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -15109,7 +15197,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -15117,7 +15205,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -15127,20 +15215,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>872</v>
       </c>
@@ -15148,7 +15236,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -15156,7 +15244,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -15164,7 +15252,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -15172,7 +15260,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -15185,21 +15273,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>878</v>
       </c>
@@ -15207,7 +15295,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -15215,7 +15303,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -15223,7 +15311,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -15231,7 +15319,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -15239,7 +15327,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -15252,20 +15340,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>853</v>
       </c>
@@ -15273,7 +15361,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -15281,7 +15369,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -15289,7 +15377,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -15297,7 +15385,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -15305,7 +15393,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -15313,7 +15401,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -15321,7 +15409,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -15329,7 +15417,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -15337,7 +15425,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -15345,7 +15433,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -15353,7 +15441,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -15361,7 +15449,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -15369,7 +15457,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -15377,7 +15465,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -15385,7 +15473,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -15393,7 +15481,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>98</v>
       </c>
@@ -15401,7 +15489,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>99</v>
       </c>
@@ -15415,20 +15503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -15436,7 +15524,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -15444,7 +15532,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -15452,7 +15540,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -15460,7 +15548,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -15468,7 +15556,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -15476,7 +15564,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -15484,7 +15572,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -15498,19 +15586,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -15518,7 +15606,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15526,7 +15614,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -15534,7 +15622,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -15542,7 +15630,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
@@ -15550,7 +15638,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
@@ -15558,7 +15646,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -15566,7 +15654,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>28</v>
       </c>
@@ -15580,17 +15668,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -15604,20 +15692,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>907</v>
       </c>
@@ -15625,7 +15713,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15633,7 +15721,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15641,7 +15729,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15649,7 +15737,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15657,7 +15745,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>98</v>
       </c>
@@ -15665,7 +15753,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>99</v>
       </c>
@@ -15679,19 +15767,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>913</v>
       </c>
@@ -15699,7 +15787,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15707,7 +15795,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15715,7 +15803,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>97</v>
       </c>
@@ -15723,7 +15811,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>98</v>
       </c>
@@ -15731,7 +15819,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>99</v>
       </c>
@@ -15745,6 +15833,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100672393E543181D44A14B926842EAEF86" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4f7d009885df2d94de87ac57354edbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cce7b25449546cf6e85fdbff4f964c6f" ns2:_="">
     <xsd:import namespace="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b"/>
@@ -15922,35 +16025,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1173640-FCC7-4E72-8021-60B50F508150}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D330BE-5E44-498F-AC6A-46F929BFA84E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15972,9 +16050,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D330BE-5E44-498F-AC6A-46F929BFA84E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1173640-FCC7-4E72-8021-60B50F508150}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/BPPS hh instrument pre-codebook.xlsx
+++ b/data/BPPS hh instrument pre-codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Private\dkillian\AMELA\BPPS\workflowr\USAID Baseline Public Perception Survey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04E76C-EBBD-4D27-AAE7-17046FB0A04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB51D8F1-058E-4D44-B338-78CEADB7DD1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="917" firstSheet="11" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="917" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="varnames" sheetId="1" r:id="rId1"/>
@@ -2944,12 +2944,6 @@
     <t>Once a day or more</t>
   </si>
   <si>
-    <t>optimisim_code</t>
-  </si>
-  <si>
-    <t>optimisim_lab</t>
-  </si>
-  <si>
     <t>Very pessimistic</t>
   </si>
   <si>
@@ -3915,6 +3909,12 @@
   </si>
   <si>
     <t>Very bad job</t>
+  </si>
+  <si>
+    <t>optimism_code</t>
+  </si>
+  <si>
+    <t>optimism_lab</t>
   </si>
 </sst>
 </file>
@@ -4767,7 +4767,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G14" s="21"/>
     </row>
@@ -4788,7 +4788,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="G15" s="21"/>
     </row>
@@ -4809,7 +4809,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G16" s="21"/>
     </row>
@@ -4851,7 +4851,7 @@
         <v>54</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G18" s="21"/>
     </row>
@@ -4872,7 +4872,7 @@
         <v>56</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G19" s="21"/>
     </row>
@@ -4893,7 +4893,7 @@
         <v>58</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="G20" s="21"/>
     </row>
@@ -4914,7 +4914,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G21" s="21"/>
     </row>
@@ -4956,7 +4956,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="G23" s="21"/>
     </row>
@@ -4977,7 +4977,7 @@
         <v>67</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G24" s="21"/>
     </row>
@@ -4998,7 +4998,7 @@
         <v>69</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G25" s="21"/>
     </row>
@@ -5019,7 +5019,7 @@
         <v>71</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G26" s="21"/>
     </row>
@@ -5040,7 +5040,7 @@
         <v>73</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G27" s="21"/>
     </row>
@@ -5075,16 +5075,16 @@
         <v>74</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>1130</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>1132</v>
       </c>
       <c r="G29" s="22"/>
     </row>
@@ -5096,16 +5096,16 @@
         <v>74</v>
       </c>
       <c r="C30" s="24" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>1133</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>1135</v>
       </c>
       <c r="G30" s="22"/>
     </row>
@@ -5117,16 +5117,16 @@
         <v>74</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>1136</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>1138</v>
       </c>
       <c r="G31" s="22"/>
     </row>
@@ -6006,7 +6006,7 @@
         <v>187</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G70" s="22"/>
     </row>
@@ -6472,7 +6472,7 @@
         <v>253</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G92" s="26"/>
     </row>
@@ -6493,7 +6493,7 @@
         <v>256</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G93" s="26"/>
     </row>
@@ -6505,10 +6505,10 @@
         <v>161</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E94" s="22" t="s">
         <v>257</v>
@@ -6526,10 +6526,10 @@
         <v>161</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E95" s="22" t="s">
         <v>259</v>
@@ -6547,10 +6547,10 @@
         <v>161</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E96" s="22" t="s">
         <v>261</v>
@@ -6594,7 +6594,7 @@
         <v>266</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E98" s="22" t="s">
         <v>267</v>
@@ -6617,7 +6617,7 @@
         <v>297</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E99" s="22" t="s">
         <v>298</v>
@@ -6640,7 +6640,7 @@
         <v>270</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E100" s="22" t="s">
         <v>271</v>
@@ -6663,7 +6663,7 @@
         <v>299</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E101" s="22" t="s">
         <v>300</v>
@@ -6686,7 +6686,7 @@
         <v>273</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E102" s="22" t="s">
         <v>274</v>
@@ -6709,7 +6709,7 @@
         <v>301</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E103" s="22" t="s">
         <v>302</v>
@@ -6732,7 +6732,7 @@
         <v>276</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E104" s="22" t="s">
         <v>277</v>
@@ -6755,7 +6755,7 @@
         <v>303</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E105" s="22" t="s">
         <v>304</v>
@@ -6778,7 +6778,7 @@
         <v>279</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E106" s="22" t="s">
         <v>280</v>
@@ -6801,7 +6801,7 @@
         <v>305</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E107" s="22" t="s">
         <v>306</v>
@@ -6824,7 +6824,7 @@
         <v>282</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E108" s="22" t="s">
         <v>283</v>
@@ -6847,7 +6847,7 @@
         <v>307</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E109" s="22" t="s">
         <v>308</v>
@@ -6870,7 +6870,7 @@
         <v>285</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E110" s="22" t="s">
         <v>286</v>
@@ -6893,7 +6893,7 @@
         <v>309</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E111" s="22" t="s">
         <v>310</v>
@@ -6916,7 +6916,7 @@
         <v>288</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E112" s="22" t="s">
         <v>289</v>
@@ -6939,7 +6939,7 @@
         <v>311</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E113" s="22" t="s">
         <v>312</v>
@@ -6962,7 +6962,7 @@
         <v>291</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E114" s="22" t="s">
         <v>292</v>
@@ -6985,7 +6985,7 @@
         <v>313</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E115" s="22" t="s">
         <v>314</v>
@@ -7008,7 +7008,7 @@
         <v>294</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E116" s="22" t="s">
         <v>295</v>
@@ -7031,7 +7031,7 @@
         <v>315</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E117" s="22" t="s">
         <v>316</v>
@@ -7140,7 +7140,7 @@
         <v>330</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E122" s="22" t="s">
         <v>331</v>
@@ -7163,7 +7163,7 @@
         <v>363</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E123" s="22" t="s">
         <v>364</v>
@@ -7186,7 +7186,7 @@
         <v>385</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E124" s="22" t="s">
         <v>386</v>
@@ -7209,7 +7209,7 @@
         <v>333</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E125" s="22" t="s">
         <v>334</v>
@@ -7232,7 +7232,7 @@
         <v>365</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E126" s="22" t="s">
         <v>366</v>
@@ -7255,7 +7255,7 @@
         <v>388</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E127" s="22" t="s">
         <v>389</v>
@@ -7278,7 +7278,7 @@
         <v>336</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E128" s="22" t="s">
         <v>337</v>
@@ -7301,7 +7301,7 @@
         <v>367</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E129" s="22" t="s">
         <v>368</v>
@@ -7324,7 +7324,7 @@
         <v>390</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E130" s="22" t="s">
         <v>391</v>
@@ -7347,7 +7347,7 @@
         <v>339</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E131" s="22" t="s">
         <v>340</v>
@@ -7370,7 +7370,7 @@
         <v>369</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E132" s="22" t="s">
         <v>370</v>
@@ -7393,7 +7393,7 @@
         <v>392</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E133" s="22" t="s">
         <v>393</v>
@@ -7416,7 +7416,7 @@
         <v>342</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E134" s="22" t="s">
         <v>343</v>
@@ -7439,7 +7439,7 @@
         <v>371</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E135" s="22" t="s">
         <v>372</v>
@@ -7462,7 +7462,7 @@
         <v>394</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E136" s="22" t="s">
         <v>395</v>
@@ -7485,7 +7485,7 @@
         <v>345</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E137" s="22" t="s">
         <v>346</v>
@@ -7508,7 +7508,7 @@
         <v>373</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E138" s="22" t="s">
         <v>374</v>
@@ -7531,7 +7531,7 @@
         <v>396</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E139" s="22" t="s">
         <v>397</v>
@@ -7554,7 +7554,7 @@
         <v>348</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E140" s="22" t="s">
         <v>349</v>
@@ -7577,7 +7577,7 @@
         <v>375</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E141" s="22" t="s">
         <v>376</v>
@@ -7600,7 +7600,7 @@
         <v>398</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E142" s="22" t="s">
         <v>399</v>
@@ -7623,7 +7623,7 @@
         <v>351</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E143" s="22" t="s">
         <v>352</v>
@@ -7646,7 +7646,7 @@
         <v>377</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E144" s="22" t="s">
         <v>378</v>
@@ -7669,7 +7669,7 @@
         <v>400</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E145" s="22" t="s">
         <v>401</v>
@@ -7692,7 +7692,7 @@
         <v>354</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E146" s="22" t="s">
         <v>355</v>
@@ -7715,7 +7715,7 @@
         <v>379</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E147" s="22" t="s">
         <v>380</v>
@@ -7738,7 +7738,7 @@
         <v>402</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E148" s="22" t="s">
         <v>403</v>
@@ -7761,7 +7761,7 @@
         <v>357</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E149" s="22" t="s">
         <v>358</v>
@@ -7784,7 +7784,7 @@
         <v>381</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E150" s="22" t="s">
         <v>382</v>
@@ -7807,7 +7807,7 @@
         <v>404</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E151" s="22" t="s">
         <v>405</v>
@@ -7830,7 +7830,7 @@
         <v>360</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E152" s="22" t="s">
         <v>361</v>
@@ -7853,7 +7853,7 @@
         <v>383</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E153" s="22" t="s">
         <v>384</v>
@@ -7876,7 +7876,7 @@
         <v>406</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E154" s="22" t="s">
         <v>407</v>
@@ -7896,14 +7896,14 @@
         <v>329</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E155" s="22"/>
       <c r="F155" s="27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G155" s="25"/>
     </row>
@@ -7915,14 +7915,14 @@
         <v>329</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E156" s="22"/>
       <c r="F156" s="27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G156" s="25"/>
     </row>
@@ -7934,14 +7934,14 @@
         <v>329</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E157" s="22"/>
       <c r="F157" s="27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G157" s="25"/>
     </row>
@@ -7953,14 +7953,14 @@
         <v>329</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E158" s="22"/>
       <c r="F158" s="27" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G158" s="25"/>
     </row>
@@ -7972,14 +7972,14 @@
         <v>329</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E159" s="22"/>
       <c r="F159" s="27" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G159" s="25"/>
     </row>
@@ -7991,14 +7991,14 @@
         <v>329</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E160" s="22"/>
       <c r="F160" s="27" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G160" s="25"/>
     </row>
@@ -8013,7 +8013,7 @@
         <v>408</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E161" s="22" t="s">
         <v>409</v>
@@ -8036,7 +8036,7 @@
         <v>429</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E162" s="22" t="s">
         <v>430</v>
@@ -8059,7 +8059,7 @@
         <v>411</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E163" s="22" t="s">
         <v>412</v>
@@ -8082,7 +8082,7 @@
         <v>431</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E164" s="22" t="s">
         <v>432</v>
@@ -8105,7 +8105,7 @@
         <v>414</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E165" s="22" t="s">
         <v>415</v>
@@ -8128,7 +8128,7 @@
         <v>433</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E166" s="22" t="s">
         <v>434</v>
@@ -8151,7 +8151,7 @@
         <v>417</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E167" s="22" t="s">
         <v>418</v>
@@ -8174,7 +8174,7 @@
         <v>435</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E168" s="22" t="s">
         <v>436</v>
@@ -8197,7 +8197,7 @@
         <v>420</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E169" s="22" t="s">
         <v>421</v>
@@ -8220,7 +8220,7 @@
         <v>437</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E170" s="22" t="s">
         <v>438</v>
@@ -8243,7 +8243,7 @@
         <v>423</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E171" s="22" t="s">
         <v>424</v>
@@ -8266,7 +8266,7 @@
         <v>439</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E172" s="22" t="s">
         <v>440</v>
@@ -8289,7 +8289,7 @@
         <v>426</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E173" s="22" t="s">
         <v>427</v>
@@ -8312,7 +8312,7 @@
         <v>441</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E174" s="22" t="s">
         <v>442</v>
@@ -8387,7 +8387,7 @@
         <v>451</v>
       </c>
       <c r="F177" s="30" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G177" s="25" t="s">
         <v>446</v>
@@ -8502,7 +8502,7 @@
         <v>464</v>
       </c>
       <c r="F182" s="27" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G182" s="22"/>
     </row>
@@ -8523,7 +8523,7 @@
         <v>466</v>
       </c>
       <c r="F183" s="27" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G183" s="22"/>
     </row>
@@ -8544,7 +8544,7 @@
         <v>468</v>
       </c>
       <c r="F184" s="27" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G184" s="22"/>
     </row>
@@ -8565,7 +8565,7 @@
         <v>470</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G185" s="22"/>
     </row>
@@ -8808,13 +8808,13 @@
         <v>329</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F197" s="28" t="s">
         <v>529</v>
@@ -8829,10 +8829,10 @@
         <v>329</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E198" s="22" t="s">
         <v>498</v>
@@ -8850,10 +8850,10 @@
         <v>329</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E199" s="22" t="s">
         <v>499</v>
@@ -9086,7 +9086,7 @@
         <v>530</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E210" s="22" t="s">
         <v>531</v>
@@ -9107,7 +9107,7 @@
         <v>532</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E211" s="22" t="s">
         <v>533</v>
@@ -9128,7 +9128,7 @@
         <v>534</v>
       </c>
       <c r="D212" s="22" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E212" s="22" t="s">
         <v>535</v>
@@ -9551,7 +9551,7 @@
         <v>596</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G231" s="26"/>
     </row>
@@ -9564,11 +9564,11 @@
       </c>
       <c r="C232" s="24"/>
       <c r="D232" s="22" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E232" s="22"/>
       <c r="F232" s="31" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G232" s="26"/>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="C233" s="24"/>
       <c r="D233" s="22" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E233" s="22"/>
       <c r="F233" s="27" t="s">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="C234" s="24"/>
       <c r="D234" s="22" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E234" s="22"/>
       <c r="F234" s="28" t="s">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="C235" s="24"/>
       <c r="D235" s="22" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E235" s="22"/>
       <c r="F235" s="27" t="s">
@@ -9640,7 +9640,7 @@
         <v>599</v>
       </c>
       <c r="F236" s="28" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G236" s="25" t="s">
         <v>600</v>
@@ -9663,7 +9663,7 @@
         <v>602</v>
       </c>
       <c r="F237" s="28" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="G237" s="25" t="s">
         <v>600</v>
@@ -9965,7 +9965,7 @@
         <v>646</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G251" s="26"/>
     </row>
@@ -9983,7 +9983,7 @@
         <v>647</v>
       </c>
       <c r="F252" s="31" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G252" s="26"/>
     </row>
@@ -9995,10 +9995,10 @@
         <v>597</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D253" s="22" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E253" s="22" t="s">
         <v>648</v>
@@ -10016,10 +10016,10 @@
         <v>597</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D254" s="22" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E254" s="22" t="s">
         <v>650</v>
@@ -10037,10 +10037,10 @@
         <v>597</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D255" s="22" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E255" s="22" t="s">
         <v>652</v>
@@ -10081,10 +10081,10 @@
         <v>597</v>
       </c>
       <c r="C257" s="24" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D257" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E257" s="22" t="s">
         <v>656</v>
@@ -10102,10 +10102,10 @@
         <v>597</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D258" s="22" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E258" s="22" t="s">
         <v>657</v>
@@ -10123,10 +10123,10 @@
         <v>597</v>
       </c>
       <c r="C259" s="24" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D259" s="22" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E259" s="22" t="s">
         <v>658</v>
@@ -10144,10 +10144,10 @@
         <v>597</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D260" s="22" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E260" s="22" t="s">
         <v>659</v>
@@ -10165,10 +10165,10 @@
         <v>597</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D261" s="22" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E261" s="22" t="s">
         <v>660</v>
@@ -10186,10 +10186,10 @@
         <v>597</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D262" s="22" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E262" s="22" t="s">
         <v>661</v>
@@ -10207,10 +10207,10 @@
         <v>597</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E263" s="22" t="s">
         <v>662</v>
@@ -10249,10 +10249,10 @@
         <v>597</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E265" s="22" t="s">
         <v>665</v>
@@ -10273,7 +10273,7 @@
         <v>642</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E266" s="22" t="s">
         <v>666</v>
@@ -10294,13 +10294,13 @@
         <v>645</v>
       </c>
       <c r="D267" s="22" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E267" s="22" t="s">
         <v>667</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G267" s="26"/>
     </row>
@@ -10315,10 +10315,10 @@
         <v>647</v>
       </c>
       <c r="D268" s="22" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F268" s="31" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G268" s="26"/>
     </row>
@@ -10333,7 +10333,7 @@
         <v>649</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E269" s="22" t="s">
         <v>668</v>
@@ -10354,7 +10354,7 @@
         <v>651</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E270" s="22" t="s">
         <v>669</v>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="C271" s="24"/>
       <c r="D271" s="22" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E271" s="22" t="s">
         <v>670</v>
@@ -10625,7 +10625,7 @@
         <v>703</v>
       </c>
       <c r="D283" s="22" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E283" s="22" t="s">
         <v>704</v>
@@ -10646,7 +10646,7 @@
         <v>705</v>
       </c>
       <c r="D284" s="22" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E284" s="22" t="s">
         <v>706</v>
@@ -11553,7 +11553,7 @@
         <v>837</v>
       </c>
       <c r="F326" s="28" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G326" s="22" t="s">
         <v>837</v>
@@ -11576,7 +11576,7 @@
         <v>839</v>
       </c>
       <c r="F327" s="28" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G327" s="22"/>
     </row>
@@ -11589,11 +11589,11 @@
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="22" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E328" s="22"/>
       <c r="F328" s="28" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G328" s="33"/>
     </row>
@@ -12233,10 +12233,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12244,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -12260,7 +12260,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -12268,7 +12268,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -12276,7 +12276,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -12284,7 +12284,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -12292,7 +12292,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -12300,7 +12300,7 @@
         <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -12889,16 +12889,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>956</v>
+        <v>1274</v>
       </c>
       <c r="B1" t="s">
-        <v>957</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12906,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -12914,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -12922,7 +12924,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -12930,7 +12932,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -12938,7 +12940,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -13027,7 +13029,7 @@
         <v>567</v>
       </c>
       <c r="B1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13035,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13043,7 +13045,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13051,7 +13053,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -13059,7 +13061,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -13067,7 +13069,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -13114,7 +13116,7 @@
         <v>559</v>
       </c>
       <c r="B1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13122,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13130,7 +13132,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13146,7 +13148,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -13154,7 +13156,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -13205,10 +13207,10 @@
         <v>387</v>
       </c>
       <c r="B1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -13216,10 +13218,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13227,10 +13229,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -13238,10 +13240,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -13249,10 +13251,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -13260,10 +13262,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -13271,7 +13273,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>129</v>
@@ -13282,10 +13284,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -13293,10 +13295,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -13304,10 +13306,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -13315,10 +13317,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -13326,10 +13328,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -13337,10 +13339,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -13388,7 +13390,7 @@
         <v>446</v>
       </c>
       <c r="B1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13396,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13404,7 +13406,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13412,7 +13414,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -13420,7 +13422,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -13459,7 +13461,7 @@
         <v>712</v>
       </c>
       <c r="B1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13467,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13475,7 +13477,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13483,7 +13485,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -13491,7 +13493,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -13499,7 +13501,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -13539,10 +13541,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13670,10 +13672,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13784,7 +13786,7 @@
         <v>541</v>
       </c>
       <c r="B1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13792,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13800,7 +13802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13828,7 +13830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B45B07-324D-414C-9B01-F4192D1CC666}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -13839,10 +13841,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13850,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13858,7 +13860,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13866,7 +13868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -13874,7 +13876,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -13917,7 +13919,7 @@
         <v>575</v>
       </c>
       <c r="B1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -13925,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13933,7 +13935,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13941,7 +13943,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14020,10 +14022,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14104,7 +14106,7 @@
         <v>600</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14136,7 +14138,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14202,10 +14204,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14324,7 +14326,7 @@
         <v>722</v>
       </c>
       <c r="B1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14332,7 +14334,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14340,7 +14342,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -14348,7 +14350,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14356,7 +14358,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14395,7 +14397,7 @@
         <v>716</v>
       </c>
       <c r="B1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14403,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14411,7 +14413,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -14419,7 +14421,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14427,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14435,7 +14437,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -14476,7 +14478,7 @@
         <v>612</v>
       </c>
       <c r="B1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14492,7 +14494,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -14500,7 +14502,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14508,7 +14510,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14547,7 +14549,7 @@
         <v>734</v>
       </c>
       <c r="B1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14555,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14563,7 +14565,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -14571,7 +14573,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14579,7 +14581,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14587,7 +14589,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -14595,7 +14597,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -14603,7 +14605,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -14611,7 +14613,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -14619,7 +14621,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -14627,7 +14629,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -14635,7 +14637,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -14643,7 +14645,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -14651,7 +14653,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -14659,7 +14661,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -14667,7 +14669,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -14675,7 +14677,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -14721,10 +14723,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14870,7 +14872,7 @@
         <v>837</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14878,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14886,7 +14888,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -14909,10 +14911,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14920,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14928,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -14951,10 +14953,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14962,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14970,7 +14972,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -14978,7 +14980,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14986,7 +14988,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14994,7 +14996,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15002,7 +15004,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15010,7 +15012,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15018,7 +15020,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -15026,7 +15028,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15034,7 +15036,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -15042,7 +15044,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -15050,7 +15052,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -15058,7 +15060,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -15066,7 +15068,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -15087,7 +15089,7 @@
         <v>850</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -15095,7 +15097,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15103,7 +15105,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15111,7 +15113,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15119,7 +15121,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15127,7 +15129,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15170,7 +15172,7 @@
         <v>869</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -15178,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -15186,7 +15188,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -15194,7 +15196,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -15202,7 +15204,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15233,7 +15235,7 @@
         <v>872</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -15241,7 +15243,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15249,7 +15251,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15257,7 +15259,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15265,7 +15267,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -15292,7 +15294,7 @@
         <v>878</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -15300,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15308,7 +15310,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15316,7 +15318,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15324,7 +15326,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15332,7 +15334,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -15358,7 +15360,7 @@
         <v>853</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -15366,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15374,7 +15376,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15382,7 +15384,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15390,7 +15392,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15398,7 +15400,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15406,7 +15408,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15414,7 +15416,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15422,7 +15424,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -15430,7 +15432,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15438,7 +15440,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -15446,7 +15448,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -15454,7 +15456,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -15462,7 +15464,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -15470,7 +15472,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -15478,7 +15480,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -15784,7 +15786,7 @@
         <v>913</v>
       </c>
       <c r="B1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -15833,21 +15835,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100672393E543181D44A14B926842EAEF86" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4f7d009885df2d94de87ac57354edbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cce7b25449546cf6e85fdbff4f964c6f" ns2:_="">
     <xsd:import namespace="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b"/>
@@ -16025,10 +16012,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D330BE-5E44-498F-AC6A-46F929BFA84E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1173640-FCC7-4E72-8021-60B50F508150}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16050,19 +16062,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1173640-FCC7-4E72-8021-60B50F508150}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D330BE-5E44-498F-AC6A-46F929BFA84E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1bc6f98d-9bb8-4f09-93f0-a2681e7d463b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>